--- a/Output.xlsx
+++ b/Output.xlsx
@@ -1,47 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://promenafirmy.sharepoint.com/sites/Mejzlik/RD Documentation/2. Propeller/4. Calculators &amp; Tools/Potential Projects useful files/FF-Propeller Picker/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_E7362A931262D67BC8EF525F6D9A7E7619B6752F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BDAB707-6EA3-4F13-BCEF-A4AB52F7DD17}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="63">
   <si>
-    <t>Thrust Data</t>
+    <t>Thrust Data [N]</t>
   </si>
   <si>
     <t>Operating point</t>
   </si>
   <si>
+    <t>15x7 3B.xlsx</t>
+  </si>
+  <si>
+    <t>15x9 2B MC.xlsx</t>
+  </si>
+  <si>
+    <t>16x11 3B.xlsx</t>
+  </si>
+  <si>
+    <t>18x10 2B E.xlsx</t>
+  </si>
+  <si>
+    <t>18x10 2B.xlsx</t>
+  </si>
+  <si>
+    <t>18x10 3B.xlsx</t>
+  </si>
+  <si>
+    <t>19x11 3B N.xlsx</t>
+  </si>
+  <si>
+    <t>19x14 2B.xlsx</t>
+  </si>
+  <si>
     <t>20.5x12 2B E L W.xlsx</t>
+  </si>
+  <si>
+    <t>20x12 2B.xlsx</t>
   </si>
   <si>
     <t>20x13 3B E L.xlsx</t>
@@ -50,10 +58,19 @@
     <t>20x14 3B E L.xlsx</t>
   </si>
   <si>
+    <t>21x10 2B E L.xlsx</t>
+  </si>
+  <si>
     <t>21x13 2B E L.xlsx</t>
   </si>
   <si>
     <t>21x14 2B E L.xlsx</t>
+  </si>
+  <si>
+    <t>22x10 2B.xlsx</t>
+  </si>
+  <si>
+    <t>22x10 3B.xlsx</t>
   </si>
   <si>
     <t>22x12 2B E W.xlsx</t>
@@ -63,6 +80,9 @@
   </si>
   <si>
     <t>22x12 3B.xlsx</t>
+  </si>
+  <si>
+    <t>24x10 2B E L.xlsx</t>
   </si>
   <si>
     <t>24x12 2B.xlsx</t>
@@ -86,10 +106,25 @@
     <t>26x15 2B E L.xlsx</t>
   </si>
   <si>
+    <t>27x10 2B.xlsx</t>
+  </si>
+  <si>
     <t>28.5x12 3B.xlsx</t>
   </si>
   <si>
+    <t>28x11 2B.xlsx</t>
+  </si>
+  <si>
     <t>28x12 2B.xlsx</t>
+  </si>
+  <si>
+    <t>29x10 2B EVO.xlsx</t>
+  </si>
+  <si>
+    <t>29x10 2B S.xlsx</t>
+  </si>
+  <si>
+    <t>29x12 2B S.xlsx</t>
   </si>
   <si>
     <t>29x13.5 2B Q.xlsx</t>
@@ -98,10 +133,16 @@
     <t>30.5x13.5 2B Q.xlsx</t>
   </si>
   <si>
+    <t>30x10 2B.xlsx</t>
+  </si>
+  <si>
     <t>30x12 2B.xlsx</t>
   </si>
   <si>
     <t>30x13 2B EVO.xlsx</t>
+  </si>
+  <si>
+    <t>31x12 2B EVO LF.xlsx</t>
   </si>
   <si>
     <t>31x12 3B.xlsx</t>
@@ -114,6 +155,12 @@
   </si>
   <si>
     <t>32x18 2B.xlsx</t>
+  </si>
+  <si>
+    <t>34x12 2B.xlsx</t>
+  </si>
+  <si>
+    <t>36x12 2B L.xlsx</t>
   </si>
   <si>
     <t>36x16 2B Q.xlsx</t>
@@ -146,23 +193,23 @@
     <t>Cruise</t>
   </si>
   <si>
-    <t>Tip Speed Data</t>
+    <t>Tip Speed Data [M]</t>
   </si>
   <si>
-    <t>Propeller Efficiency Data</t>
+    <t>Propeller Efficiency Data [-]</t>
   </si>
   <si>
-    <t>Mechanical Power Data</t>
+    <t>Mechanical Power Data [w]</t>
   </si>
   <si>
-    <t>RPM Data</t>
+    <t>RPM Data [s-1]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,54 +270,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -308,7 +316,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -342,7 +350,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -377,10 +384,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -553,22 +559,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AX58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S41" sqref="S41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -653,701 +656,1295 @@
       <c r="AB2" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AC2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="D3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="E3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="F3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="G3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="H3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="I3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="J3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="K3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="L3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="N3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="O3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="P3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="Q3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="R3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="S3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="T3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="U3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="V3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="W3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="X3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="Y3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="Z3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="AA3">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="AB3">
-        <v>200</v>
+        <v>59</v>
+      </c>
+      <c r="AC3">
+        <v>59</v>
+      </c>
+      <c r="AD3">
+        <v>59</v>
+      </c>
+      <c r="AE3">
+        <v>59</v>
+      </c>
+      <c r="AF3">
+        <v>59</v>
+      </c>
+      <c r="AG3">
+        <v>59</v>
+      </c>
+      <c r="AH3">
+        <v>59</v>
+      </c>
+      <c r="AI3">
+        <v>59</v>
+      </c>
+      <c r="AJ3">
+        <v>59</v>
+      </c>
+      <c r="AK3">
+        <v>59</v>
+      </c>
+      <c r="AL3">
+        <v>59</v>
+      </c>
+      <c r="AM3">
+        <v>59</v>
+      </c>
+      <c r="AN3">
+        <v>59</v>
+      </c>
+      <c r="AO3">
+        <v>59</v>
+      </c>
+      <c r="AP3">
+        <v>59</v>
+      </c>
+      <c r="AQ3">
+        <v>59</v>
+      </c>
+      <c r="AR3">
+        <v>59</v>
+      </c>
+      <c r="AS3">
+        <v>59</v>
+      </c>
+      <c r="AT3">
+        <v>59</v>
+      </c>
+      <c r="AU3">
+        <v>59</v>
+      </c>
+      <c r="AV3">
+        <v>59</v>
+      </c>
+      <c r="AW3">
+        <v>59</v>
+      </c>
+      <c r="AX3">
+        <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="C4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="D4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="F4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="G4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="H4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="I4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="J4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="K4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="L4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="M4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="N4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="O4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="P4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="Q4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="R4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="S4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="T4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="U4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="V4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="W4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="X4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="Y4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="Z4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="AA4">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="AB4">
-        <v>160</v>
+        <v>59</v>
+      </c>
+      <c r="AC4">
+        <v>59</v>
+      </c>
+      <c r="AD4">
+        <v>59</v>
+      </c>
+      <c r="AE4">
+        <v>59</v>
+      </c>
+      <c r="AF4">
+        <v>59</v>
+      </c>
+      <c r="AG4">
+        <v>59</v>
+      </c>
+      <c r="AH4">
+        <v>59</v>
+      </c>
+      <c r="AI4">
+        <v>59</v>
+      </c>
+      <c r="AJ4">
+        <v>59</v>
+      </c>
+      <c r="AK4">
+        <v>59</v>
+      </c>
+      <c r="AL4">
+        <v>59</v>
+      </c>
+      <c r="AM4">
+        <v>59</v>
+      </c>
+      <c r="AN4">
+        <v>59</v>
+      </c>
+      <c r="AO4">
+        <v>59</v>
+      </c>
+      <c r="AP4">
+        <v>59</v>
+      </c>
+      <c r="AQ4">
+        <v>59</v>
+      </c>
+      <c r="AR4">
+        <v>59</v>
+      </c>
+      <c r="AS4">
+        <v>59</v>
+      </c>
+      <c r="AT4">
+        <v>59</v>
+      </c>
+      <c r="AU4">
+        <v>59</v>
+      </c>
+      <c r="AV4">
+        <v>59</v>
+      </c>
+      <c r="AW4">
+        <v>59</v>
+      </c>
+      <c r="AX4">
+        <v>-0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="H5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="I5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="J5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="L5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="M5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="N5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="O5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="P5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="Q5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="R5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="S5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="T5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="U5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="V5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="W5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="X5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="Y5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="Z5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="AA5">
-        <v>37.6</v>
+        <v>16</v>
       </c>
       <c r="AB5">
-        <v>37.6</v>
+        <v>16</v>
+      </c>
+      <c r="AC5">
+        <v>16</v>
+      </c>
+      <c r="AD5">
+        <v>16</v>
+      </c>
+      <c r="AE5">
+        <v>16</v>
+      </c>
+      <c r="AF5">
+        <v>16</v>
+      </c>
+      <c r="AG5">
+        <v>16</v>
+      </c>
+      <c r="AH5">
+        <v>16</v>
+      </c>
+      <c r="AI5">
+        <v>16</v>
+      </c>
+      <c r="AJ5">
+        <v>16</v>
+      </c>
+      <c r="AK5">
+        <v>16</v>
+      </c>
+      <c r="AL5">
+        <v>16</v>
+      </c>
+      <c r="AM5">
+        <v>16</v>
+      </c>
+      <c r="AN5">
+        <v>16</v>
+      </c>
+      <c r="AO5">
+        <v>16</v>
+      </c>
+      <c r="AP5">
+        <v>16</v>
+      </c>
+      <c r="AQ5">
+        <v>16</v>
+      </c>
+      <c r="AR5">
+        <v>16</v>
+      </c>
+      <c r="AS5">
+        <v>16</v>
+      </c>
+      <c r="AT5">
+        <v>16</v>
+      </c>
+      <c r="AU5">
+        <v>16</v>
+      </c>
+      <c r="AV5">
+        <v>16</v>
+      </c>
+      <c r="AW5">
+        <v>16</v>
+      </c>
+      <c r="AX5">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="C7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="D7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="E7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="F7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="G7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="H7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="I7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="J7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="K7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="L7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="M7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="N7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="O7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="P7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="Q7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="R7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="S7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="T7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="U7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="V7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="W7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="X7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="Y7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="Z7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="AA7">
-        <v>58.6</v>
+        <v>14.9</v>
       </c>
       <c r="AB7">
-        <v>58.6</v>
+        <v>14.9</v>
+      </c>
+      <c r="AC7">
+        <v>14.9</v>
+      </c>
+      <c r="AD7">
+        <v>14.9</v>
+      </c>
+      <c r="AE7">
+        <v>14.9</v>
+      </c>
+      <c r="AF7">
+        <v>14.9</v>
+      </c>
+      <c r="AG7">
+        <v>14.9</v>
+      </c>
+      <c r="AH7">
+        <v>14.9</v>
+      </c>
+      <c r="AI7">
+        <v>14.9</v>
+      </c>
+      <c r="AJ7">
+        <v>14.9</v>
+      </c>
+      <c r="AK7">
+        <v>14.9</v>
+      </c>
+      <c r="AL7">
+        <v>14.9</v>
+      </c>
+      <c r="AM7">
+        <v>14.9</v>
+      </c>
+      <c r="AN7">
+        <v>14.9</v>
+      </c>
+      <c r="AO7">
+        <v>14.9</v>
+      </c>
+      <c r="AP7">
+        <v>14.9</v>
+      </c>
+      <c r="AQ7">
+        <v>14.9</v>
+      </c>
+      <c r="AR7">
+        <v>14.9</v>
+      </c>
+      <c r="AS7">
+        <v>14.9</v>
+      </c>
+      <c r="AT7">
+        <v>14.9</v>
+      </c>
+      <c r="AU7">
+        <v>14.9</v>
+      </c>
+      <c r="AV7">
+        <v>14.9</v>
+      </c>
+      <c r="AW7">
+        <v>14.9</v>
+      </c>
+      <c r="AX7">
+        <v>14.9</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="H8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="J8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="K8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="O8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="P8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="Q8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="R8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="S8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="T8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="U8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="V8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="W8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="X8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="Y8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="Z8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="AA8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="AB8">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="AC8">
+        <v>16</v>
+      </c>
+      <c r="AD8">
+        <v>16</v>
+      </c>
+      <c r="AE8">
+        <v>16</v>
+      </c>
+      <c r="AF8">
+        <v>16</v>
+      </c>
+      <c r="AG8">
+        <v>16</v>
+      </c>
+      <c r="AH8">
+        <v>16</v>
+      </c>
+      <c r="AI8">
+        <v>16</v>
+      </c>
+      <c r="AJ8">
+        <v>16</v>
+      </c>
+      <c r="AK8">
+        <v>16</v>
+      </c>
+      <c r="AL8">
+        <v>16</v>
+      </c>
+      <c r="AM8">
+        <v>16</v>
+      </c>
+      <c r="AN8">
+        <v>16</v>
+      </c>
+      <c r="AO8">
+        <v>16</v>
+      </c>
+      <c r="AP8">
+        <v>16</v>
+      </c>
+      <c r="AQ8">
+        <v>16</v>
+      </c>
+      <c r="AR8">
+        <v>16</v>
+      </c>
+      <c r="AS8">
+        <v>16</v>
+      </c>
+      <c r="AT8">
+        <v>16</v>
+      </c>
+      <c r="AU8">
+        <v>16</v>
+      </c>
+      <c r="AV8">
+        <v>16</v>
+      </c>
+      <c r="AW8">
+        <v>16</v>
+      </c>
+      <c r="AX8">
+        <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="C9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="D9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="E9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="F9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="G9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="H9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="I9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="J9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="K9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="L9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="M9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="N9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="O9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="P9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="Q9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="R9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="S9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="T9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="U9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="V9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="W9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="X9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="Y9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="Z9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="AA9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
       </c>
       <c r="AB9">
-        <v>36.200000000000003</v>
+        <v>15.2</v>
+      </c>
+      <c r="AC9">
+        <v>15.2</v>
+      </c>
+      <c r="AD9">
+        <v>15.2</v>
+      </c>
+      <c r="AE9">
+        <v>15.2</v>
+      </c>
+      <c r="AF9">
+        <v>15.2</v>
+      </c>
+      <c r="AG9">
+        <v>15.2</v>
+      </c>
+      <c r="AH9">
+        <v>15.2</v>
+      </c>
+      <c r="AI9">
+        <v>15.2</v>
+      </c>
+      <c r="AJ9">
+        <v>15.2</v>
+      </c>
+      <c r="AK9">
+        <v>15.2</v>
+      </c>
+      <c r="AL9">
+        <v>15.2</v>
+      </c>
+      <c r="AM9">
+        <v>15.2</v>
+      </c>
+      <c r="AN9">
+        <v>15.2</v>
+      </c>
+      <c r="AO9">
+        <v>15.2</v>
+      </c>
+      <c r="AP9">
+        <v>15.2</v>
+      </c>
+      <c r="AQ9">
+        <v>15.2</v>
+      </c>
+      <c r="AR9">
+        <v>15.2</v>
+      </c>
+      <c r="AS9">
+        <v>15.2</v>
+      </c>
+      <c r="AT9">
+        <v>15.2</v>
+      </c>
+      <c r="AU9">
+        <v>15.2</v>
+      </c>
+      <c r="AV9">
+        <v>15.2</v>
+      </c>
+      <c r="AW9">
+        <v>15.2</v>
+      </c>
+      <c r="AX9">
+        <v>15.2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="C10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="D10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="E10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="F10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="G10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="H10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="I10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="J10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="K10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="L10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="M10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="N10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="O10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="P10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="Q10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="R10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="S10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="T10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="U10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="V10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="W10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="X10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="Y10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="Z10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="AA10">
-        <v>80</v>
+        <v>12.7</v>
       </c>
       <c r="AB10">
-        <v>80</v>
+        <v>12.7</v>
+      </c>
+      <c r="AC10">
+        <v>12.7</v>
+      </c>
+      <c r="AD10">
+        <v>12.7</v>
+      </c>
+      <c r="AE10">
+        <v>12.7</v>
+      </c>
+      <c r="AF10">
+        <v>12.7</v>
+      </c>
+      <c r="AG10">
+        <v>12.7</v>
+      </c>
+      <c r="AH10">
+        <v>12.7</v>
+      </c>
+      <c r="AI10">
+        <v>12.7</v>
+      </c>
+      <c r="AJ10">
+        <v>12.7</v>
+      </c>
+      <c r="AK10">
+        <v>12.7</v>
+      </c>
+      <c r="AL10">
+        <v>12.7</v>
+      </c>
+      <c r="AM10">
+        <v>12.7</v>
+      </c>
+      <c r="AN10">
+        <v>12.7</v>
+      </c>
+      <c r="AO10">
+        <v>12.7</v>
+      </c>
+      <c r="AP10">
+        <v>12.7</v>
+      </c>
+      <c r="AQ10">
+        <v>12.7</v>
+      </c>
+      <c r="AR10">
+        <v>12.7</v>
+      </c>
+      <c r="AS10">
+        <v>12.7</v>
+      </c>
+      <c r="AT10">
+        <v>12.7</v>
+      </c>
+      <c r="AU10">
+        <v>12.7</v>
+      </c>
+      <c r="AV10">
+        <v>12.7</v>
+      </c>
+      <c r="AW10">
+        <v>12.7</v>
+      </c>
+      <c r="AX10">
+        <v>12.7</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1432,701 +2029,1295 @@
       <c r="AB14" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AC14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX14" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B15">
-        <v>0.68</v>
+        <v>0.51</v>
       </c>
       <c r="C15">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
       <c r="D15">
-        <v>0.6</v>
+        <v>0.41</v>
       </c>
       <c r="E15">
-        <v>0.67</v>
+        <v>0.42</v>
       </c>
       <c r="F15">
-        <v>0.67</v>
+        <v>0.45</v>
       </c>
       <c r="G15">
-        <v>0.64</v>
+        <v>0.38</v>
       </c>
       <c r="H15">
-        <v>0.69</v>
+        <v>0.4</v>
       </c>
       <c r="I15">
-        <v>0.57999999999999996</v>
+        <v>0.39</v>
       </c>
       <c r="J15">
-        <v>0.65</v>
+        <v>0.37</v>
       </c>
       <c r="K15">
-        <v>0.56000000000000005</v>
+        <v>0.39</v>
       </c>
       <c r="L15">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="M15">
+        <v>0.32</v>
+      </c>
+      <c r="N15">
+        <v>0.39</v>
+      </c>
+      <c r="O15">
+        <v>0.36</v>
+      </c>
+      <c r="P15">
+        <v>0.36</v>
+      </c>
+      <c r="Q15">
+        <v>0.38</v>
+      </c>
+      <c r="R15">
+        <v>0.34</v>
+      </c>
+      <c r="S15">
+        <v>0.35</v>
+      </c>
+      <c r="T15">
+        <v>0.37</v>
+      </c>
+      <c r="U15">
+        <v>0.31</v>
+      </c>
+      <c r="V15">
+        <v>0.36</v>
+      </c>
+      <c r="W15">
+        <v>0.35</v>
+      </c>
+      <c r="X15">
+        <v>0.3</v>
+      </c>
+      <c r="Y15">
+        <v>0.32</v>
+      </c>
+      <c r="Z15">
+        <v>0.29</v>
+      </c>
+      <c r="AA15">
+        <v>0.29</v>
+      </c>
+      <c r="AB15">
+        <v>0.31</v>
+      </c>
+      <c r="AC15">
+        <v>0.31</v>
+      </c>
+      <c r="AD15">
+        <v>0.33</v>
+      </c>
+      <c r="AE15">
+        <v>0.26</v>
+      </c>
+      <c r="AF15">
+        <v>0.32</v>
+      </c>
+      <c r="AG15">
+        <v>0.3</v>
+      </c>
+      <c r="AH15">
+        <v>0.3</v>
+      </c>
+      <c r="AI15">
+        <v>0.32</v>
+      </c>
+      <c r="AJ15">
+        <v>0.3</v>
+      </c>
+      <c r="AK15">
+        <v>0.28</v>
+      </c>
+      <c r="AL15">
+        <v>0.27</v>
+      </c>
+      <c r="AM15">
+        <v>0.31</v>
+      </c>
+      <c r="AN15">
+        <v>0.28</v>
+      </c>
+      <c r="AO15">
+        <v>0.27</v>
+      </c>
+      <c r="AP15">
+        <v>0.27</v>
+      </c>
+      <c r="AQ15">
+        <v>0.24</v>
+      </c>
+      <c r="AR15">
+        <v>0.27</v>
+      </c>
+      <c r="AS15">
+        <v>0.27</v>
+      </c>
+      <c r="AT15">
+        <v>0.25</v>
+      </c>
+      <c r="AU15">
+        <v>0.25</v>
+      </c>
+      <c r="AV15">
+        <v>0.25</v>
+      </c>
+      <c r="AW15">
+        <v>0.23</v>
+      </c>
+      <c r="AX15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16">
+        <v>0.55</v>
+      </c>
+      <c r="C16">
+        <v>0.53</v>
+      </c>
+      <c r="D16">
+        <v>0.43</v>
+      </c>
+      <c r="E16">
+        <v>0.45</v>
+      </c>
+      <c r="F16">
+        <v>0.47</v>
+      </c>
+      <c r="G16">
+        <v>0.41</v>
+      </c>
+      <c r="H16">
+        <v>0.41</v>
+      </c>
+      <c r="I16">
+        <v>0.41</v>
+      </c>
+      <c r="J16">
+        <v>0.4</v>
+      </c>
+      <c r="K16">
+        <v>0.41</v>
+      </c>
+      <c r="L16">
+        <v>0.36</v>
+      </c>
+      <c r="M16">
+        <v>0.35</v>
+      </c>
+      <c r="N16">
+        <v>0.43</v>
+      </c>
+      <c r="O16">
+        <v>0.39</v>
+      </c>
+      <c r="P16">
+        <v>0.38</v>
+      </c>
+      <c r="Q16">
+        <v>0.42</v>
+      </c>
+      <c r="R16">
+        <v>0.38</v>
+      </c>
+      <c r="S16">
+        <v>0.39</v>
+      </c>
+      <c r="T16">
+        <v>0.39</v>
+      </c>
+      <c r="U16">
+        <v>0.34</v>
+      </c>
+      <c r="V16">
+        <v>0.41</v>
+      </c>
+      <c r="W16">
+        <v>0.38</v>
+      </c>
+      <c r="X16">
+        <v>0.34</v>
+      </c>
+      <c r="Y16">
+        <v>0.36</v>
+      </c>
+      <c r="Z16">
+        <v>0.34</v>
+      </c>
+      <c r="AA16">
+        <v>0.32</v>
+      </c>
+      <c r="AB16">
+        <v>0.35</v>
+      </c>
+      <c r="AC16">
+        <v>0.34</v>
+      </c>
+      <c r="AD16">
+        <v>0.38</v>
+      </c>
+      <c r="AE16">
+        <v>0.31</v>
+      </c>
+      <c r="AF16">
+        <v>0.37</v>
+      </c>
+      <c r="AG16">
+        <v>0.35</v>
+      </c>
+      <c r="AH16">
+        <v>0.36</v>
+      </c>
+      <c r="AI16">
+        <v>0.37</v>
+      </c>
+      <c r="AJ16">
+        <v>0.35</v>
+      </c>
+      <c r="AK16">
+        <v>0.34</v>
+      </c>
+      <c r="AL16">
+        <v>0.32</v>
+      </c>
+      <c r="AM16">
+        <v>0.37</v>
+      </c>
+      <c r="AN16">
+        <v>0.33</v>
+      </c>
+      <c r="AO16">
+        <v>0.32</v>
+      </c>
+      <c r="AP16">
+        <v>0.33</v>
+      </c>
+      <c r="AQ16">
+        <v>0.29</v>
+      </c>
+      <c r="AR16">
+        <v>0.32</v>
+      </c>
+      <c r="AS16">
+        <v>0.32</v>
+      </c>
+      <c r="AT16">
+        <v>0.28</v>
+      </c>
+      <c r="AU16">
+        <v>0.32</v>
+      </c>
+      <c r="AV16">
+        <v>0.32</v>
+      </c>
+      <c r="AW16">
+        <v>0.29</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C17">
         <v>0.54</v>
       </c>
-      <c r="N15">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="O15">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="P15">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="Q15">
-        <v>0.49</v>
-      </c>
-      <c r="R15">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="S15">
-        <v>0.53</v>
-      </c>
-      <c r="T15">
-        <v>0.5</v>
-      </c>
-      <c r="U15">
+      <c r="D17">
+        <v>0.47</v>
+      </c>
+      <c r="E17">
+        <v>0.51</v>
+      </c>
+      <c r="F17">
+        <v>0.54</v>
+      </c>
+      <c r="G17">
         <v>0.52</v>
       </c>
-      <c r="V15">
-        <v>0.5</v>
-      </c>
-      <c r="W15">
-        <v>0.45</v>
-      </c>
-      <c r="X15">
-        <v>0.49</v>
-      </c>
-      <c r="Y15">
-        <v>0.49</v>
-      </c>
-      <c r="Z15">
-        <v>0.47</v>
-      </c>
-      <c r="AA15">
-        <v>0.43</v>
-      </c>
-      <c r="AB15">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16">
-        <v>0.7</v>
-      </c>
-      <c r="C16">
-        <v>0.62</v>
-      </c>
-      <c r="D16">
-        <v>0.61</v>
-      </c>
-      <c r="E16">
-        <v>0.67</v>
-      </c>
-      <c r="F16">
-        <v>0.66</v>
-      </c>
-      <c r="G16">
-        <v>0.68</v>
-      </c>
-      <c r="H16">
-        <v>0.68</v>
-      </c>
-      <c r="I16">
-        <v>0.6</v>
-      </c>
-      <c r="J16">
-        <v>0.66</v>
-      </c>
-      <c r="K16">
-        <v>0.6</v>
-      </c>
-      <c r="L16">
-        <v>0.65</v>
-      </c>
-      <c r="M16">
-        <v>0.61</v>
-      </c>
-      <c r="N16">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="O16">
-        <v>0.62</v>
-      </c>
-      <c r="P16">
-        <v>0.61</v>
-      </c>
-      <c r="Q16">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="R16">
-        <v>0.63</v>
-      </c>
-      <c r="S16">
-        <v>0.61</v>
-      </c>
-      <c r="T16">
-        <v>0.59</v>
-      </c>
-      <c r="U16">
-        <v>0.6</v>
-      </c>
-      <c r="V16">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="W16">
-        <v>0.54</v>
-      </c>
-      <c r="X16">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="Y16">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="Z16">
-        <v>0.5</v>
-      </c>
-      <c r="AA16">
-        <v>0.53</v>
-      </c>
-      <c r="AB16">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17">
+      <c r="H17">
         <v>0.48</v>
-      </c>
-      <c r="C17">
-        <v>0.43</v>
-      </c>
-      <c r="D17">
-        <v>0.42</v>
-      </c>
-      <c r="E17">
-        <v>0.46</v>
-      </c>
-      <c r="F17">
-        <v>0.45</v>
-      </c>
-      <c r="G17">
-        <v>0.48</v>
-      </c>
-      <c r="H17">
-        <v>0.47</v>
       </c>
       <c r="I17">
         <v>0.43</v>
       </c>
       <c r="J17">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="K17">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="L17">
         <v>0.47</v>
       </c>
       <c r="M17">
+        <v>0.45</v>
+      </c>
+      <c r="N17">
+        <v>0.58</v>
+      </c>
+      <c r="O17">
         <v>0.46</v>
       </c>
-      <c r="N17">
-        <v>0.4</v>
-      </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.45</v>
       </c>
-      <c r="P17">
-        <v>0.44</v>
-      </c>
       <c r="Q17">
-        <v>0.45</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R17">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
       <c r="S17">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="T17">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="U17">
         <v>0.47</v>
       </c>
       <c r="V17">
+        <v>0.6</v>
+      </c>
+      <c r="W17">
+        <v>0.51</v>
+      </c>
+      <c r="X17">
+        <v>0.53</v>
+      </c>
+      <c r="Y17">
+        <v>0.53</v>
+      </c>
+      <c r="Z17">
+        <v>0.55</v>
+      </c>
+      <c r="AA17">
         <v>0.45</v>
       </c>
-      <c r="W17">
-        <v>0.43</v>
-      </c>
-      <c r="X17">
+      <c r="AB17">
+        <v>0.52</v>
+      </c>
+      <c r="AC17">
+        <v>0.49</v>
+      </c>
+      <c r="AD17">
+        <v>0.61</v>
+      </c>
+      <c r="AE17">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AF17">
+        <v>0.61</v>
+      </c>
+      <c r="AG17">
+        <v>0.55</v>
+      </c>
+      <c r="AH17">
+        <v>0.64</v>
+      </c>
+      <c r="AI17">
+        <v>0.63</v>
+      </c>
+      <c r="AJ17">
+        <v>0.57</v>
+      </c>
+      <c r="AK17">
+        <v>0.57</v>
+      </c>
+      <c r="AL17">
+        <v>0.57</v>
+      </c>
+      <c r="AM17">
+        <v>0.66</v>
+      </c>
+      <c r="AN17">
+        <v>0.57</v>
+      </c>
+      <c r="AO17">
+        <v>0.55</v>
+      </c>
+      <c r="AP17">
+        <v>0.6</v>
+      </c>
+      <c r="AQ17">
+        <v>0.55</v>
+      </c>
+      <c r="AR17">
+        <v>0.57</v>
+      </c>
+      <c r="AS17">
+        <v>0.57</v>
+      </c>
+      <c r="AT17">
+        <v>0.44</v>
+      </c>
+      <c r="AU17">
+        <v>0.58</v>
+      </c>
+      <c r="AV17">
+        <v>0.65</v>
+      </c>
+      <c r="AW17">
+        <v>0.55</v>
+      </c>
+      <c r="AX17">
         <v>0.45</v>
       </c>
-      <c r="Y17">
-        <v>0.45</v>
-      </c>
-      <c r="Z17">
-        <v>0.37</v>
-      </c>
-      <c r="AA17">
-        <v>0.43</v>
-      </c>
-      <c r="AB17">
-        <v>0.35</v>
-      </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>0.76</v>
+      </c>
+      <c r="C19">
+        <v>0.59</v>
+      </c>
+      <c r="D19">
+        <v>0.51</v>
+      </c>
+      <c r="E19">
+        <v>0.55</v>
+      </c>
+      <c r="F19">
+        <v>0.59</v>
+      </c>
+      <c r="G19">
+        <v>0.58</v>
+      </c>
+      <c r="H19">
+        <v>0.53</v>
+      </c>
+      <c r="I19">
+        <v>0.47</v>
+      </c>
+      <c r="J19">
+        <v>0.55</v>
+      </c>
+      <c r="K19">
+        <v>0.52</v>
+      </c>
+      <c r="L19">
+        <v>0.52</v>
+      </c>
+      <c r="M19">
+        <v>0.49</v>
+      </c>
+      <c r="N19">
+        <v>0.64</v>
+      </c>
+      <c r="O19">
+        <v>0.51</v>
+      </c>
+      <c r="P19">
+        <v>0.5</v>
+      </c>
+      <c r="Q19">
+        <v>0.62</v>
+      </c>
+      <c r="R19">
+        <v>0.63</v>
+      </c>
+      <c r="S19">
+        <v>0.59</v>
+      </c>
+      <c r="T19">
+        <v>0.53</v>
+      </c>
+      <c r="U19">
+        <v>0.52</v>
+      </c>
+      <c r="V19">
         <v>0.67</v>
       </c>
-      <c r="C18">
+      <c r="W19">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="X19">
         <v>0.59</v>
       </c>
-      <c r="D18">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E18">
+      <c r="Y19">
+        <v>0.58</v>
+      </c>
+      <c r="Z19">
+        <v>0.61</v>
+      </c>
+      <c r="AA19">
+        <v>0.5</v>
+      </c>
+      <c r="AB19">
+        <v>0.57</v>
+      </c>
+      <c r="AC19">
+        <v>0.55</v>
+      </c>
+      <c r="AD19">
+        <v>0.68</v>
+      </c>
+      <c r="AE19">
+        <v>0.63</v>
+      </c>
+      <c r="AF19">
+        <v>0.67</v>
+      </c>
+      <c r="AG19">
+        <v>0.62</v>
+      </c>
+      <c r="AH19">
+        <v>0.71</v>
+      </c>
+      <c r="AI19">
+        <v>0.7</v>
+      </c>
+      <c r="AJ19">
+        <v>0.63</v>
+      </c>
+      <c r="AK19">
         <v>0.64</v>
       </c>
-      <c r="F18">
+      <c r="AL19">
         <v>0.63</v>
       </c>
-      <c r="G18">
+      <c r="AM19">
+        <v>0.73</v>
+      </c>
+      <c r="AN19">
+        <v>0.63</v>
+      </c>
+      <c r="AO19">
+        <v>0.62</v>
+      </c>
+      <c r="AP19">
+        <v>0.67</v>
+      </c>
+      <c r="AQ19">
+        <v>0.62</v>
+      </c>
+      <c r="AR19">
+        <v>0.63</v>
+      </c>
+      <c r="AS19">
+        <v>0.63</v>
+      </c>
+      <c r="AT19">
+        <v>0.49</v>
+      </c>
+      <c r="AU19">
         <v>0.65</v>
       </c>
-      <c r="H18">
-        <v>0.65</v>
-      </c>
-      <c r="I18">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J18">
-        <v>0.63</v>
-      </c>
-      <c r="K18">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L18">
+      <c r="AV19">
+        <v>0.73</v>
+      </c>
+      <c r="AW19">
         <v>0.62</v>
       </c>
-      <c r="M18">
-        <v>0.59</v>
-      </c>
-      <c r="N18">
-        <v>0.54</v>
-      </c>
-      <c r="O18">
-        <v>0.6</v>
-      </c>
-      <c r="P18">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="Q18">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="R18">
-        <v>0.61</v>
-      </c>
-      <c r="S18">
-        <v>0.6</v>
-      </c>
-      <c r="T18">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="U18">
-        <v>0.59</v>
-      </c>
-      <c r="V18">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="W18">
+      <c r="AX19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>0.7</v>
+      </c>
+      <c r="C20">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.48</v>
+      </c>
+      <c r="E20">
+        <v>0.52</v>
+      </c>
+      <c r="F20">
+        <v>0.55</v>
+      </c>
+      <c r="G20">
         <v>0.53</v>
       </c>
-      <c r="X18">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="Y18">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="Z18">
-        <v>0.48</v>
-      </c>
-      <c r="AA18">
-        <v>0.52</v>
-      </c>
-      <c r="AB18">
+      <c r="H20">
+        <v>0.49</v>
+      </c>
+      <c r="I20">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19">
-        <v>0.69</v>
-      </c>
-      <c r="C19">
-        <v>0.62</v>
-      </c>
-      <c r="D19">
-        <v>0.6</v>
-      </c>
-      <c r="E19">
-        <v>0.65</v>
-      </c>
-      <c r="F19">
-        <v>0.63</v>
-      </c>
-      <c r="G19">
-        <v>0.7</v>
-      </c>
-      <c r="H19">
-        <v>0.66</v>
-      </c>
-      <c r="I19">
-        <v>0.62</v>
-      </c>
-      <c r="J19">
-        <v>0.68</v>
-      </c>
-      <c r="K19">
-        <v>0.67</v>
-      </c>
-      <c r="L19">
-        <v>0.69</v>
-      </c>
-      <c r="M19">
-        <v>0.69</v>
-      </c>
-      <c r="N19">
-        <v>0.59</v>
-      </c>
-      <c r="O19">
-        <v>0.67</v>
-      </c>
-      <c r="P19">
-        <v>0.64</v>
-      </c>
-      <c r="Q19">
-        <v>0.68</v>
-      </c>
-      <c r="R19">
-        <v>0.7</v>
-      </c>
-      <c r="S19">
-        <v>0.7</v>
-      </c>
-      <c r="T19">
-        <v>0.69</v>
-      </c>
-      <c r="U19">
-        <v>0.7</v>
-      </c>
-      <c r="V19">
-        <v>0.68</v>
-      </c>
-      <c r="W19">
-        <v>0.66</v>
-      </c>
-      <c r="X19">
-        <v>0.69</v>
-      </c>
-      <c r="Y19">
-        <v>0.69</v>
-      </c>
-      <c r="Z19">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AA19">
-        <v>0.65</v>
-      </c>
-      <c r="AB19">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20">
+      <c r="J20">
+        <v>0.51</v>
+      </c>
+      <c r="K20">
         <v>0.49</v>
-      </c>
-      <c r="C20">
-        <v>0.44</v>
-      </c>
-      <c r="D20">
-        <v>0.43</v>
-      </c>
-      <c r="E20">
-        <v>0.47</v>
-      </c>
-      <c r="F20">
-        <v>0.46</v>
-      </c>
-      <c r="G20">
-        <v>0.49</v>
-      </c>
-      <c r="H20">
-        <v>0.48</v>
-      </c>
-      <c r="I20">
-        <v>0.43</v>
-      </c>
-      <c r="J20">
-        <v>0.48</v>
-      </c>
-      <c r="K20">
-        <v>0.46</v>
       </c>
       <c r="L20">
         <v>0.48</v>
       </c>
       <c r="M20">
+        <v>0.45</v>
+      </c>
+      <c r="N20">
+        <v>0.59</v>
+      </c>
+      <c r="O20">
         <v>0.47</v>
       </c>
-      <c r="N20">
-        <v>0.41</v>
-      </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.46</v>
       </c>
-      <c r="P20">
-        <v>0.45</v>
-      </c>
       <c r="Q20">
-        <v>0.46</v>
+        <v>0.57</v>
       </c>
       <c r="R20">
-        <v>0.48</v>
+        <v>0.58</v>
       </c>
       <c r="S20">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="T20">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="U20">
         <v>0.47</v>
       </c>
       <c r="V20">
+        <v>0.61</v>
+      </c>
+      <c r="W20">
+        <v>0.52</v>
+      </c>
+      <c r="X20">
+        <v>0.54</v>
+      </c>
+      <c r="Y20">
+        <v>0.53</v>
+      </c>
+      <c r="Z20">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AA20">
         <v>0.46</v>
       </c>
-      <c r="W20">
+      <c r="AB20">
+        <v>0.53</v>
+      </c>
+      <c r="AC20">
+        <v>0.5</v>
+      </c>
+      <c r="AD20">
+        <v>0.62</v>
+      </c>
+      <c r="AE20">
+        <v>0.57</v>
+      </c>
+      <c r="AF20">
+        <v>0.61</v>
+      </c>
+      <c r="AG20">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AH20">
+        <v>0.64</v>
+      </c>
+      <c r="AI20">
+        <v>0.64</v>
+      </c>
+      <c r="AJ20">
+        <v>0.57</v>
+      </c>
+      <c r="AK20">
+        <v>0.58</v>
+      </c>
+      <c r="AL20">
+        <v>0.57</v>
+      </c>
+      <c r="AM20">
+        <v>0.67</v>
+      </c>
+      <c r="AN20">
+        <v>0.57</v>
+      </c>
+      <c r="AO20">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP20">
+        <v>0.61</v>
+      </c>
+      <c r="AQ20">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR20">
+        <v>0.57</v>
+      </c>
+      <c r="AS20">
+        <v>0.57</v>
+      </c>
+      <c r="AT20">
+        <v>0.45</v>
+      </c>
+      <c r="AU20">
+        <v>0.59</v>
+      </c>
+      <c r="AV20">
+        <v>0.66</v>
+      </c>
+      <c r="AW20">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AX20">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>0.7</v>
+      </c>
+      <c r="C21">
+        <v>0.55</v>
+      </c>
+      <c r="D21">
+        <v>0.48</v>
+      </c>
+      <c r="E21">
+        <v>0.51</v>
+      </c>
+      <c r="F21">
+        <v>0.55</v>
+      </c>
+      <c r="G21">
+        <v>0.53</v>
+      </c>
+      <c r="H21">
+        <v>0.49</v>
+      </c>
+      <c r="I21">
         <v>0.44</v>
       </c>
-      <c r="X20">
+      <c r="J21">
+        <v>0.51</v>
+      </c>
+      <c r="K21">
+        <v>0.48</v>
+      </c>
+      <c r="L21">
+        <v>0.47</v>
+      </c>
+      <c r="M21">
+        <v>0.45</v>
+      </c>
+      <c r="N21">
+        <v>0.59</v>
+      </c>
+      <c r="O21">
+        <v>0.47</v>
+      </c>
+      <c r="P21">
         <v>0.46</v>
       </c>
-      <c r="Y20">
-        <v>0.46</v>
-      </c>
-      <c r="Z20">
-        <v>0.38</v>
-      </c>
-      <c r="AA20">
-        <v>0.43</v>
-      </c>
-      <c r="AB20">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21">
+      <c r="Q21">
+        <v>0.57</v>
+      </c>
+      <c r="R21">
+        <v>0.57</v>
+      </c>
+      <c r="S21">
+        <v>0.54</v>
+      </c>
+      <c r="T21">
         <v>0.49</v>
-      </c>
-      <c r="C21">
-        <v>0.44</v>
-      </c>
-      <c r="D21">
-        <v>0.43</v>
-      </c>
-      <c r="E21">
-        <v>0.47</v>
-      </c>
-      <c r="F21">
-        <v>0.46</v>
-      </c>
-      <c r="G21">
-        <v>0.49</v>
-      </c>
-      <c r="H21">
-        <v>0.48</v>
-      </c>
-      <c r="I21">
-        <v>0.43</v>
-      </c>
-      <c r="J21">
-        <v>0.48</v>
-      </c>
-      <c r="K21">
-        <v>0.46</v>
-      </c>
-      <c r="L21">
-        <v>0.48</v>
-      </c>
-      <c r="M21">
-        <v>0.47</v>
-      </c>
-      <c r="N21">
-        <v>0.41</v>
-      </c>
-      <c r="O21">
-        <v>0.46</v>
-      </c>
-      <c r="P21">
-        <v>0.45</v>
-      </c>
-      <c r="Q21">
-        <v>0.46</v>
-      </c>
-      <c r="R21">
-        <v>0.48</v>
-      </c>
-      <c r="S21">
-        <v>0.48</v>
-      </c>
-      <c r="T21">
-        <v>0.47</v>
       </c>
       <c r="U21">
         <v>0.47</v>
       </c>
       <c r="V21">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="W21">
-        <v>0.44</v>
+        <v>0.51</v>
       </c>
       <c r="X21">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="Y21">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="Z21">
-        <v>0.38</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AA21">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="AB21">
-        <v>0.36</v>
+        <v>0.52</v>
+      </c>
+      <c r="AC21">
+        <v>0.5</v>
+      </c>
+      <c r="AD21">
+        <v>0.62</v>
+      </c>
+      <c r="AE21">
+        <v>0.57</v>
+      </c>
+      <c r="AF21">
+        <v>0.61</v>
+      </c>
+      <c r="AG21">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AH21">
+        <v>0.64</v>
+      </c>
+      <c r="AI21">
+        <v>0.64</v>
+      </c>
+      <c r="AJ21">
+        <v>0.57</v>
+      </c>
+      <c r="AK21">
+        <v>0.58</v>
+      </c>
+      <c r="AL21">
+        <v>0.57</v>
+      </c>
+      <c r="AM21">
+        <v>0.67</v>
+      </c>
+      <c r="AN21">
+        <v>0.57</v>
+      </c>
+      <c r="AO21">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP21">
+        <v>0.61</v>
+      </c>
+      <c r="AQ21">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR21">
+        <v>0.57</v>
+      </c>
+      <c r="AS21">
+        <v>0.57</v>
+      </c>
+      <c r="AT21">
+        <v>0.45</v>
+      </c>
+      <c r="AU21">
+        <v>0.59</v>
+      </c>
+      <c r="AV21">
+        <v>0.66</v>
+      </c>
+      <c r="AW21">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AX21">
+        <v>0.45</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>0.68</v>
       </c>
       <c r="C22">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="D22">
+        <v>0.46</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <v>0.53</v>
+      </c>
+      <c r="G22">
+        <v>0.52</v>
+      </c>
+      <c r="H22">
+        <v>0.47</v>
+      </c>
+      <c r="I22">
+        <v>0.42</v>
+      </c>
+      <c r="J22">
+        <v>0.49</v>
+      </c>
+      <c r="K22">
+        <v>0.47</v>
+      </c>
+      <c r="L22">
+        <v>0.46</v>
+      </c>
+      <c r="M22">
+        <v>0.44</v>
+      </c>
+      <c r="N22">
+        <v>0.57</v>
+      </c>
+      <c r="O22">
+        <v>0.46</v>
+      </c>
+      <c r="P22">
+        <v>0.44</v>
+      </c>
+      <c r="Q22">
+        <v>0.55</v>
+      </c>
+      <c r="R22">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="S22">
+        <v>0.52</v>
+      </c>
+      <c r="T22">
+        <v>0.47</v>
+      </c>
+      <c r="U22">
+        <v>0.46</v>
+      </c>
+      <c r="V22">
         <v>0.59</v>
       </c>
-      <c r="E22">
-        <v>0.64</v>
-      </c>
-      <c r="F22">
+      <c r="W22">
+        <v>0.5</v>
+      </c>
+      <c r="X22">
+        <v>0.53</v>
+      </c>
+      <c r="Y22">
+        <v>0.52</v>
+      </c>
+      <c r="Z22">
+        <v>0.55</v>
+      </c>
+      <c r="AA22">
+        <v>0.44</v>
+      </c>
+      <c r="AB22">
+        <v>0.51</v>
+      </c>
+      <c r="AC22">
+        <v>0.49</v>
+      </c>
+      <c r="AD22">
+        <v>0.61</v>
+      </c>
+      <c r="AE22">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AF22">
+        <v>0.6</v>
+      </c>
+      <c r="AG22">
+        <v>0.55</v>
+      </c>
+      <c r="AH22">
         <v>0.63</v>
       </c>
-      <c r="G22">
-        <v>0.69</v>
-      </c>
-      <c r="H22">
-        <v>0.66</v>
-      </c>
-      <c r="I22">
-        <v>0.61</v>
-      </c>
-      <c r="J22">
-        <v>0.67</v>
-      </c>
-      <c r="K22">
+      <c r="AI22">
+        <v>0.63</v>
+      </c>
+      <c r="AJ22">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AK22">
+        <v>0.57</v>
+      </c>
+      <c r="AL22">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AM22">
         <v>0.65</v>
       </c>
-      <c r="L22">
-        <v>0.68</v>
-      </c>
-      <c r="M22">
-        <v>0.67</v>
-      </c>
-      <c r="N22">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="O22">
+      <c r="AN22">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO22">
+        <v>0.55</v>
+      </c>
+      <c r="AP22">
+        <v>0.6</v>
+      </c>
+      <c r="AQ22">
+        <v>0.55</v>
+      </c>
+      <c r="AR22">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS22">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT22">
+        <v>0.44</v>
+      </c>
+      <c r="AU22">
+        <v>0.58</v>
+      </c>
+      <c r="AV22">
         <v>0.65</v>
       </c>
-      <c r="P22">
-        <v>0.63</v>
-      </c>
-      <c r="Q22">
-        <v>0.66</v>
-      </c>
-      <c r="R22">
-        <v>0.68</v>
-      </c>
-      <c r="S22">
-        <v>0.69</v>
-      </c>
-      <c r="T22">
-        <v>0.67</v>
-      </c>
-      <c r="U22">
-        <v>0.68</v>
-      </c>
-      <c r="V22">
-        <v>0.66</v>
-      </c>
-      <c r="W22">
-        <v>0.64</v>
-      </c>
-      <c r="X22">
-        <v>0.67</v>
-      </c>
-      <c r="Y22">
-        <v>0.67</v>
-      </c>
-      <c r="Z22">
-        <v>0.54</v>
-      </c>
-      <c r="AA22">
-        <v>0.63</v>
-      </c>
-      <c r="AB22">
-        <v>0.52</v>
+      <c r="AW22">
+        <v>0.55</v>
+      </c>
+      <c r="AX22">
+        <v>0.44</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -2211,10 +3402,76 @@
       <c r="AB26" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AC26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX26" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2297,615 +3554,1143 @@
       <c r="AB27">
         <v>0</v>
       </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B28">
-        <v>56.65</v>
+        <v>33.24</v>
       </c>
       <c r="C28">
-        <v>57.59</v>
+        <v>37.94</v>
       </c>
       <c r="D28">
-        <v>57.05</v>
+        <v>39.87</v>
       </c>
       <c r="E28">
-        <v>57.59</v>
+        <v>41.62</v>
       </c>
       <c r="F28">
-        <v>58.31</v>
+        <v>42.51</v>
       </c>
       <c r="G28">
-        <v>59.15</v>
+        <v>43.67</v>
       </c>
       <c r="H28">
-        <v>58.82</v>
+        <v>44.18</v>
       </c>
       <c r="I28">
-        <v>60.01</v>
+        <v>42.17</v>
       </c>
       <c r="J28">
-        <v>61.79</v>
+        <v>46.17</v>
       </c>
       <c r="K28">
-        <v>62.35</v>
+        <v>44.08</v>
       </c>
       <c r="L28">
-        <v>62</v>
+        <v>46.74</v>
       </c>
       <c r="M28">
-        <v>62.05</v>
+        <v>46.61</v>
       </c>
       <c r="N28">
-        <v>64.819999999999993</v>
+        <v>47.87</v>
       </c>
       <c r="O28">
-        <v>64.53</v>
+        <v>46.87</v>
       </c>
       <c r="P28">
-        <v>65.06</v>
+        <v>47.37</v>
       </c>
       <c r="Q28">
-        <v>64.709999999999994</v>
+        <v>48.48</v>
       </c>
       <c r="R28">
-        <v>65.34</v>
+        <v>49.15</v>
       </c>
       <c r="S28">
-        <v>66.33</v>
+        <v>48.77</v>
       </c>
       <c r="T28">
-        <v>68.48</v>
+        <v>48.1</v>
       </c>
       <c r="U28">
-        <v>67.36</v>
+        <v>49.92</v>
       </c>
       <c r="V28">
-        <v>69.489999999999995</v>
+        <v>52.27</v>
       </c>
       <c r="W28">
-        <v>68.510000000000005</v>
+        <v>51.8</v>
       </c>
       <c r="X28">
-        <v>67.63</v>
+        <v>52.39</v>
       </c>
       <c r="Y28">
-        <v>67.63</v>
+        <v>52.61</v>
       </c>
       <c r="Z28">
-        <v>69.63</v>
+        <v>52.98</v>
       </c>
       <c r="AA28">
-        <v>72.17</v>
+        <v>54.33</v>
       </c>
       <c r="AB28">
-        <v>74.650000000000006</v>
+        <v>54.43</v>
+      </c>
+      <c r="AC28">
+        <v>54.58</v>
+      </c>
+      <c r="AD28">
+        <v>53.92</v>
+      </c>
+      <c r="AE28">
+        <v>56.72</v>
+      </c>
+      <c r="AF28">
+        <v>57.21</v>
+      </c>
+      <c r="AG28">
+        <v>56.03</v>
+      </c>
+      <c r="AH28">
+        <v>58.18</v>
+      </c>
+      <c r="AI28">
+        <v>57.18</v>
+      </c>
+      <c r="AJ28">
+        <v>58.02</v>
+      </c>
+      <c r="AK28">
+        <v>57.32</v>
+      </c>
+      <c r="AL28">
+        <v>59.56</v>
+      </c>
+      <c r="AM28">
+        <v>58.22</v>
+      </c>
+      <c r="AN28">
+        <v>58.59</v>
+      </c>
+      <c r="AO28">
+        <v>60.37</v>
+      </c>
+      <c r="AP28">
+        <v>60.33</v>
+      </c>
+      <c r="AQ28">
+        <v>60.41</v>
+      </c>
+      <c r="AR28">
+        <v>59.58</v>
+      </c>
+      <c r="AS28">
+        <v>59.58</v>
+      </c>
+      <c r="AT28">
+        <v>59.09</v>
+      </c>
+      <c r="AU28">
+        <v>61.47</v>
+      </c>
+      <c r="AV28">
+        <v>63.56</v>
+      </c>
+      <c r="AW28">
+        <v>64.17</v>
+      </c>
+      <c r="AX28">
+        <v>63941538951444.62</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B29">
-        <v>74.150000000000006</v>
+        <v>29.55</v>
       </c>
       <c r="C29">
-        <v>74.55</v>
+        <v>76.20999999999999</v>
       </c>
       <c r="D29">
-        <v>74.73</v>
+        <v>75.83</v>
       </c>
       <c r="E29">
-        <v>75.36</v>
+        <v>61.19</v>
       </c>
       <c r="F29">
-        <v>76.11</v>
+        <v>70.73</v>
       </c>
       <c r="G29">
-        <v>74.349999999999994</v>
+        <v>59.27</v>
       </c>
       <c r="H29">
-        <v>75.180000000000007</v>
+        <v>63.33</v>
       </c>
       <c r="I29">
-        <v>74.790000000000006</v>
+        <v>75.95999999999999</v>
       </c>
       <c r="J29">
-        <v>75.849999999999994</v>
+        <v>68.87</v>
       </c>
       <c r="K29">
-        <v>71.650000000000006</v>
+        <v>64.45</v>
       </c>
       <c r="L29">
-        <v>73.849999999999994</v>
+        <v>62.5</v>
       </c>
       <c r="M29">
-        <v>70.81</v>
+        <v>61.59</v>
       </c>
       <c r="N29">
-        <v>79.72</v>
+        <v>51.68</v>
       </c>
       <c r="O29">
-        <v>77.45</v>
+        <v>68.55</v>
       </c>
       <c r="P29">
-        <v>78.88</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="Q29">
-        <v>67.27</v>
+        <v>54.03</v>
       </c>
       <c r="R29">
-        <v>75.39</v>
+        <v>36.43</v>
       </c>
       <c r="S29">
-        <v>75.73</v>
+        <v>51.81</v>
       </c>
       <c r="T29">
-        <v>77.14</v>
+        <v>70.62</v>
       </c>
       <c r="U29">
-        <v>75.53</v>
+        <v>56.44</v>
       </c>
       <c r="V29">
-        <v>77.86</v>
+        <v>37.17</v>
       </c>
       <c r="W29">
-        <v>72.760000000000005</v>
+        <v>59.52</v>
       </c>
       <c r="X29">
-        <v>70.89</v>
+        <v>31.26</v>
       </c>
       <c r="Y29">
-        <v>70.89</v>
+        <v>41.58</v>
       </c>
       <c r="Z29">
-        <v>79.239999999999995</v>
+        <v>35.64</v>
       </c>
       <c r="AA29">
-        <v>76.88</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="AB29">
-        <v>83.05</v>
+        <v>44.66</v>
+      </c>
+      <c r="AC29">
+        <v>63.87</v>
+      </c>
+      <c r="AD29">
+        <v>29.85</v>
+      </c>
+      <c r="AE29">
+        <v>23.62</v>
+      </c>
+      <c r="AF29">
+        <v>-1198.13</v>
+      </c>
+      <c r="AG29">
+        <v>49.1</v>
+      </c>
+      <c r="AH29">
+        <v>36.49</v>
+      </c>
+      <c r="AI29">
+        <v>42.34</v>
+      </c>
+      <c r="AJ29">
+        <v>42.03</v>
+      </c>
+      <c r="AK29">
+        <v>30.95</v>
+      </c>
+      <c r="AL29">
+        <v>38.38</v>
+      </c>
+      <c r="AM29">
+        <v>7.51</v>
+      </c>
+      <c r="AN29">
+        <v>32.68</v>
+      </c>
+      <c r="AO29">
+        <v>43.4</v>
+      </c>
+      <c r="AP29">
+        <v>-1106.46</v>
+      </c>
+      <c r="AQ29">
+        <v>37.77</v>
+      </c>
+      <c r="AR29">
+        <v>20.97</v>
+      </c>
+      <c r="AS29">
+        <v>20.97</v>
+      </c>
+      <c r="AT29">
+        <v>49.75</v>
+      </c>
+      <c r="AU29">
+        <v>18.12</v>
+      </c>
+      <c r="AV29">
+        <v>13.19</v>
+      </c>
+      <c r="AW29">
+        <v>46.61</v>
+      </c>
+      <c r="AX29">
+        <v>55.65</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B30">
-        <v>62.11</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>62.46</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>63.73</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>64.23</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>64.06</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>64.959999999999994</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>66.41</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>66.47</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>66.14</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>65.760000000000005</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>69.92</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>69.05</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>69.91</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>68.06</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>68.97</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>69.97</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>72.34</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>70.75</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>73.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>71.59</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>70.69</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>70.69</v>
+        <v>0</v>
       </c>
       <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>22.31</v>
+      </c>
+      <c r="C31">
+        <v>70.15000000000001</v>
+      </c>
+      <c r="D31">
+        <v>72.61</v>
+      </c>
+      <c r="E31">
+        <v>56.72</v>
+      </c>
+      <c r="F31">
+        <v>63.04</v>
+      </c>
+      <c r="G31">
+        <v>53.08</v>
+      </c>
+      <c r="H31">
+        <v>56.06</v>
+      </c>
+      <c r="I31">
+        <v>71.23</v>
+      </c>
+      <c r="J31">
+        <v>65.92</v>
+      </c>
+      <c r="K31">
+        <v>57.3</v>
+      </c>
+      <c r="L31">
+        <v>55.79</v>
+      </c>
+      <c r="M31">
+        <v>55.54</v>
+      </c>
+      <c r="N31">
+        <v>45.24</v>
+      </c>
+      <c r="O31">
+        <v>62.19</v>
+      </c>
+      <c r="P31">
+        <v>66.55</v>
+      </c>
+      <c r="Q31">
+        <v>50.01</v>
+      </c>
+      <c r="R31">
+        <v>30.98</v>
+      </c>
+      <c r="S31">
+        <v>37.9</v>
+      </c>
+      <c r="T31">
+        <v>59.68</v>
+      </c>
+      <c r="U31">
+        <v>47.91</v>
+      </c>
+      <c r="V31">
+        <v>25.14</v>
+      </c>
+      <c r="W31">
+        <v>54.95</v>
+      </c>
+      <c r="X31">
+        <v>19.17</v>
+      </c>
+      <c r="Y31">
+        <v>33.47</v>
+      </c>
+      <c r="Z31">
+        <v>29.33</v>
+      </c>
+      <c r="AA31">
+        <v>64.84999999999999</v>
+      </c>
+      <c r="AB31">
+        <v>36.9</v>
+      </c>
+      <c r="AC31">
+        <v>32.7</v>
+      </c>
+      <c r="AD31">
+        <v>18.61</v>
+      </c>
+      <c r="AE31">
+        <v>19.77</v>
+      </c>
+      <c r="AF31">
+        <v>-1724.24</v>
+      </c>
+      <c r="AG31">
+        <v>51.28</v>
+      </c>
+      <c r="AH31">
+        <v>33.39</v>
+      </c>
+      <c r="AI31">
+        <v>39.54</v>
+      </c>
+      <c r="AJ31">
+        <v>37.38</v>
+      </c>
+      <c r="AK31">
+        <v>25.12</v>
+      </c>
+      <c r="AL31">
+        <v>34.22</v>
+      </c>
+      <c r="AM31">
+        <v>0.37</v>
+      </c>
+      <c r="AN31">
+        <v>27.13</v>
+      </c>
+      <c r="AO31">
+        <v>39.79</v>
+      </c>
+      <c r="AP31">
+        <v>-1448.81</v>
+      </c>
+      <c r="AQ31">
+        <v>36.31</v>
+      </c>
+      <c r="AR31">
+        <v>16.04</v>
+      </c>
+      <c r="AS31">
+        <v>16.04</v>
+      </c>
+      <c r="AT31">
+        <v>45.12</v>
+      </c>
+      <c r="AU31">
+        <v>13.12</v>
+      </c>
+      <c r="AV31">
+        <v>9.52</v>
+      </c>
+      <c r="AW31">
+        <v>55.22</v>
+      </c>
+      <c r="AX31">
+        <v>52.78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:50">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32">
+        <v>31.82</v>
+      </c>
+      <c r="C32">
+        <v>76.87</v>
+      </c>
+      <c r="D32">
+        <v>76.81</v>
+      </c>
+      <c r="E32">
+        <v>62.57</v>
+      </c>
+      <c r="F32">
+        <v>73.09</v>
+      </c>
+      <c r="G32">
+        <v>61.2</v>
+      </c>
+      <c r="H32">
+        <v>65.56999999999999</v>
+      </c>
+      <c r="I32">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="J32">
+        <v>69.79000000000001</v>
+      </c>
+      <c r="K32">
+        <v>66.65000000000001</v>
+      </c>
+      <c r="L32">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="M32">
+        <v>62.8</v>
+      </c>
+      <c r="N32">
+        <v>53.69</v>
+      </c>
+      <c r="O32">
+        <v>70.52</v>
+      </c>
+      <c r="P32">
+        <v>72.23999999999999</v>
+      </c>
+      <c r="Q32">
+        <v>55.29</v>
+      </c>
+      <c r="R32">
+        <v>38.16</v>
+      </c>
+      <c r="S32">
+        <v>56.18</v>
+      </c>
+      <c r="T32">
+        <v>72.79000000000001</v>
+      </c>
+      <c r="U32">
+        <v>59.12</v>
+      </c>
+      <c r="V32">
+        <v>40.98</v>
+      </c>
+      <c r="W32">
+        <v>60.95</v>
+      </c>
+      <c r="X32">
+        <v>35.1</v>
+      </c>
+      <c r="Y32">
+        <v>44.13</v>
+      </c>
+      <c r="Z32">
+        <v>36.78</v>
+      </c>
+      <c r="AA32">
+        <v>68.64</v>
+      </c>
+      <c r="AB32">
+        <v>47.11</v>
+      </c>
+      <c r="AC32">
+        <v>64.73</v>
+      </c>
+      <c r="AD32">
+        <v>33.42</v>
+      </c>
+      <c r="AE32">
+        <v>24.85</v>
+      </c>
+      <c r="AF32">
+        <v>-1030.27</v>
+      </c>
+      <c r="AG32">
+        <v>50.04</v>
+      </c>
+      <c r="AH32">
+        <v>37.49</v>
+      </c>
+      <c r="AI32">
+        <v>43.24</v>
+      </c>
+      <c r="AJ32">
+        <v>43.52</v>
+      </c>
+      <c r="AK32">
+        <v>32.82</v>
+      </c>
+      <c r="AL32">
+        <v>39.72</v>
+      </c>
+      <c r="AM32">
+        <v>9.81</v>
+      </c>
+      <c r="AN32">
+        <v>34.46</v>
+      </c>
+      <c r="AO32">
+        <v>44.56</v>
+      </c>
+      <c r="AP32">
+        <v>-996.39</v>
+      </c>
+      <c r="AQ32">
+        <v>38.62</v>
+      </c>
+      <c r="AR32">
+        <v>22.55</v>
+      </c>
+      <c r="AS32">
+        <v>22.55</v>
+      </c>
+      <c r="AT32">
+        <v>51.23</v>
+      </c>
+      <c r="AU32">
+        <v>19.72</v>
+      </c>
+      <c r="AV32">
+        <v>14.37</v>
+      </c>
+      <c r="AW32">
+        <v>47.29</v>
+      </c>
+      <c r="AX32">
+        <v>56.57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33">
+        <v>30.34</v>
+      </c>
+      <c r="C33">
+        <v>76.73999999999999</v>
+      </c>
+      <c r="D33">
+        <v>76.17</v>
+      </c>
+      <c r="E33">
+        <v>61.67</v>
+      </c>
+      <c r="F33">
+        <v>71.55</v>
+      </c>
+      <c r="G33">
+        <v>59.94</v>
+      </c>
+      <c r="H33">
+        <v>64.11</v>
+      </c>
+      <c r="I33">
+        <v>76.45999999999999</v>
+      </c>
+      <c r="J33">
+        <v>69.19</v>
+      </c>
+      <c r="K33">
+        <v>65.22</v>
+      </c>
+      <c r="L33">
+        <v>63.23</v>
+      </c>
+      <c r="M33">
+        <v>62.01</v>
+      </c>
+      <c r="N33">
+        <v>52.37</v>
+      </c>
+      <c r="O33">
+        <v>69.23</v>
+      </c>
+      <c r="P33">
+        <v>71.36</v>
+      </c>
+      <c r="Q33">
+        <v>54.46</v>
+      </c>
+      <c r="R33">
+        <v>37.03</v>
+      </c>
+      <c r="S33">
+        <v>53.32</v>
+      </c>
+      <c r="T33">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="U33">
+        <v>57.37</v>
+      </c>
+      <c r="V33">
+        <v>38.49</v>
+      </c>
+      <c r="W33">
+        <v>60.02</v>
+      </c>
+      <c r="X33">
+        <v>32.58</v>
+      </c>
+      <c r="Y33">
+        <v>42.46</v>
+      </c>
+      <c r="Z33">
+        <v>36.03</v>
+      </c>
+      <c r="AA33">
+        <v>68.05</v>
+      </c>
+      <c r="AB33">
+        <v>45.5</v>
+      </c>
+      <c r="AC33">
+        <v>64.17</v>
+      </c>
+      <c r="AD33">
+        <v>31.08</v>
+      </c>
+      <c r="AE33">
+        <v>24.04</v>
+      </c>
+      <c r="AF33">
+        <v>-1140.25</v>
+      </c>
+      <c r="AG33">
+        <v>49.42</v>
+      </c>
+      <c r="AH33">
+        <v>36.84</v>
+      </c>
+      <c r="AI33">
+        <v>42.65</v>
+      </c>
+      <c r="AJ33">
+        <v>42.54</v>
+      </c>
+      <c r="AK33">
+        <v>31.59</v>
+      </c>
+      <c r="AL33">
+        <v>38.84</v>
+      </c>
+      <c r="AM33">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AN33">
+        <v>33.3</v>
+      </c>
+      <c r="AO33">
+        <v>43.8</v>
+      </c>
+      <c r="AP33">
+        <v>-1068.55</v>
+      </c>
+      <c r="AQ33">
+        <v>38.06</v>
+      </c>
+      <c r="AR33">
+        <v>21.51</v>
+      </c>
+      <c r="AS33">
+        <v>21.51</v>
+      </c>
+      <c r="AT33">
+        <v>50.26</v>
+      </c>
+      <c r="AU33">
+        <v>18.67</v>
+      </c>
+      <c r="AV33">
+        <v>13.59</v>
+      </c>
+      <c r="AW33">
+        <v>46.84</v>
+      </c>
+      <c r="AX33">
+        <v>55.97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34">
+        <v>24.08</v>
+      </c>
+      <c r="C34">
+        <v>71.66</v>
+      </c>
+      <c r="D34">
         <v>73.41</v>
       </c>
-      <c r="AA30">
-        <v>74.97</v>
-      </c>
-      <c r="AB30">
-        <v>78.010000000000005</v>
+      <c r="E34">
+        <v>57.82</v>
+      </c>
+      <c r="F34">
+        <v>64.94</v>
+      </c>
+      <c r="G34">
+        <v>54.6</v>
+      </c>
+      <c r="H34">
+        <v>57.86</v>
+      </c>
+      <c r="I34">
+        <v>72.41</v>
+      </c>
+      <c r="J34">
+        <v>66.64</v>
+      </c>
+      <c r="K34">
+        <v>59.06</v>
+      </c>
+      <c r="L34">
+        <v>57.43</v>
+      </c>
+      <c r="M34">
+        <v>58.67</v>
+      </c>
+      <c r="N34">
+        <v>46.81</v>
+      </c>
+      <c r="O34">
+        <v>63.76</v>
+      </c>
+      <c r="P34">
+        <v>67.62</v>
+      </c>
+      <c r="Q34">
+        <v>50.99</v>
+      </c>
+      <c r="R34">
+        <v>32.3</v>
+      </c>
+      <c r="S34">
+        <v>41.3</v>
+      </c>
+      <c r="T34">
+        <v>62.37</v>
+      </c>
+      <c r="U34">
+        <v>49.99</v>
+      </c>
+      <c r="V34">
+        <v>28.07</v>
+      </c>
+      <c r="W34">
+        <v>56.07</v>
+      </c>
+      <c r="X34">
+        <v>22.09</v>
+      </c>
+      <c r="Y34">
+        <v>35.45</v>
+      </c>
+      <c r="Z34">
+        <v>32.46</v>
+      </c>
+      <c r="AA34">
+        <v>65.55</v>
+      </c>
+      <c r="AB34">
+        <v>38.78</v>
+      </c>
+      <c r="AC34">
+        <v>46.3</v>
+      </c>
+      <c r="AD34">
+        <v>21.33</v>
+      </c>
+      <c r="AE34">
+        <v>20.7</v>
+      </c>
+      <c r="AF34">
+        <v>-1597.13</v>
+      </c>
+      <c r="AG34">
+        <v>46.86</v>
+      </c>
+      <c r="AH34">
+        <v>34.13</v>
+      </c>
+      <c r="AI34">
+        <v>40.22</v>
+      </c>
+      <c r="AJ34">
+        <v>38.5</v>
+      </c>
+      <c r="AK34">
+        <v>26.53</v>
+      </c>
+      <c r="AL34">
+        <v>35.23</v>
+      </c>
+      <c r="AM34">
+        <v>2.09</v>
+      </c>
+      <c r="AN34">
+        <v>28.47</v>
+      </c>
+      <c r="AO34">
+        <v>40.66</v>
+      </c>
+      <c r="AP34">
+        <v>-1366.47</v>
+      </c>
+      <c r="AQ34">
+        <v>35.76</v>
+      </c>
+      <c r="AR34">
+        <v>17.23</v>
+      </c>
+      <c r="AS34">
+        <v>17.23</v>
+      </c>
+      <c r="AT34">
+        <v>46.24</v>
+      </c>
+      <c r="AU34">
+        <v>14.32</v>
+      </c>
+      <c r="AV34">
+        <v>10.4</v>
+      </c>
+      <c r="AW34">
+        <v>52.24</v>
+      </c>
+      <c r="AX34">
+        <v>53.47</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>78.41</v>
-      </c>
-      <c r="C31">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="D31">
-        <v>78.33</v>
-      </c>
-      <c r="E31">
-        <v>79.5</v>
-      </c>
-      <c r="F31">
-        <v>80.38</v>
-      </c>
-      <c r="G31">
-        <v>76.260000000000005</v>
-      </c>
-      <c r="H31">
-        <v>78.75</v>
-      </c>
-      <c r="I31">
-        <v>76.97</v>
-      </c>
-      <c r="J31">
-        <v>77.55</v>
-      </c>
-      <c r="K31">
-        <v>68.81</v>
-      </c>
-      <c r="L31">
-        <v>72.849999999999994</v>
-      </c>
-      <c r="M31">
-        <v>67.319999999999993</v>
-      </c>
-      <c r="N31">
-        <v>82</v>
-      </c>
-      <c r="O31">
-        <v>78.3</v>
-      </c>
-      <c r="P31">
-        <v>80.260000000000005</v>
-      </c>
-      <c r="Q31">
-        <v>61.49</v>
-      </c>
-      <c r="R31">
-        <v>73.23</v>
-      </c>
-      <c r="S31">
-        <v>72.61</v>
-      </c>
-      <c r="T31">
-        <v>74.7</v>
-      </c>
-      <c r="U31">
-        <v>71.959999999999994</v>
-      </c>
-      <c r="V31">
-        <v>75.92</v>
-      </c>
-      <c r="W31">
-        <v>67.989999999999995</v>
-      </c>
-      <c r="X31">
+    <row r="37" spans="1:50">
+      <c r="A37" t="s">
         <v>61</v>
       </c>
-      <c r="Y31">
-        <v>61</v>
-      </c>
-      <c r="Z31">
-        <v>78.010000000000005</v>
-      </c>
-      <c r="AA31">
-        <v>71.040000000000006</v>
-      </c>
-      <c r="AB31">
-        <v>81.319999999999993</v>
-      </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32">
-        <v>74.2</v>
-      </c>
-      <c r="C32">
-        <v>74.58</v>
-      </c>
-      <c r="D32">
-        <v>74.78</v>
-      </c>
-      <c r="E32">
-        <v>75.39</v>
-      </c>
-      <c r="F32">
-        <v>76.150000000000006</v>
-      </c>
-      <c r="G32">
-        <v>74.39</v>
-      </c>
-      <c r="H32">
-        <v>75.23</v>
-      </c>
-      <c r="I32">
-        <v>74.819999999999993</v>
-      </c>
-      <c r="J32">
-        <v>75.89</v>
-      </c>
-      <c r="K32">
-        <v>71.63</v>
-      </c>
-      <c r="L32">
-        <v>73.88</v>
-      </c>
-      <c r="M32">
-        <v>70.78</v>
-      </c>
-      <c r="N32">
-        <v>79.760000000000005</v>
-      </c>
-      <c r="O32">
-        <v>77.459999999999994</v>
-      </c>
-      <c r="P32">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="Q32">
-        <v>67.22</v>
-      </c>
-      <c r="R32">
-        <v>75.41</v>
-      </c>
-      <c r="S32">
-        <v>75.75</v>
-      </c>
-      <c r="T32">
-        <v>77.12</v>
-      </c>
-      <c r="U32">
-        <v>75.540000000000006</v>
-      </c>
-      <c r="V32">
-        <v>77.849999999999994</v>
-      </c>
-      <c r="W32">
-        <v>72.739999999999995</v>
-      </c>
-      <c r="X32">
-        <v>70.81</v>
-      </c>
-      <c r="Y32">
-        <v>70.81</v>
-      </c>
-      <c r="Z32">
-        <v>79.25</v>
-      </c>
-      <c r="AA32">
-        <v>76.88</v>
-      </c>
-      <c r="AB32">
-        <v>83.06</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33">
-        <v>74.14</v>
-      </c>
-      <c r="C33">
-        <v>74.540000000000006</v>
-      </c>
-      <c r="D33">
-        <v>74.72</v>
-      </c>
-      <c r="E33">
-        <v>75.349999999999994</v>
-      </c>
-      <c r="F33">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="G33">
-        <v>74.34</v>
-      </c>
-      <c r="H33">
-        <v>75.17</v>
-      </c>
-      <c r="I33">
-        <v>74.78</v>
-      </c>
-      <c r="J33">
-        <v>75.84</v>
-      </c>
-      <c r="K33">
-        <v>71.66</v>
-      </c>
-      <c r="L33">
-        <v>73.849999999999994</v>
-      </c>
-      <c r="M33">
-        <v>70.819999999999993</v>
-      </c>
-      <c r="N33">
-        <v>79.709999999999994</v>
-      </c>
-      <c r="O33">
-        <v>77.44</v>
-      </c>
-      <c r="P33">
-        <v>78.88</v>
-      </c>
-      <c r="Q33">
-        <v>67.28</v>
-      </c>
-      <c r="R33">
-        <v>75.39</v>
-      </c>
-      <c r="S33">
-        <v>75.72</v>
-      </c>
-      <c r="T33">
-        <v>77.150000000000006</v>
-      </c>
-      <c r="U33">
-        <v>75.52</v>
-      </c>
-      <c r="V33">
-        <v>77.87</v>
-      </c>
-      <c r="W33">
-        <v>72.760000000000005</v>
-      </c>
-      <c r="X33">
-        <v>70.92</v>
-      </c>
-      <c r="Y33">
-        <v>70.92</v>
-      </c>
-      <c r="Z33">
-        <v>79.239999999999995</v>
-      </c>
-      <c r="AA33">
-        <v>76.89</v>
-      </c>
-      <c r="AB33">
-        <v>83.04</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34">
-        <v>77.319999999999993</v>
-      </c>
-      <c r="C34">
-        <v>77.459999999999994</v>
-      </c>
-      <c r="D34">
-        <v>77.53</v>
-      </c>
-      <c r="E34">
-        <v>78.53</v>
-      </c>
-      <c r="F34">
-        <v>79.569999999999993</v>
-      </c>
-      <c r="G34">
-        <v>76.03</v>
-      </c>
-      <c r="H34">
-        <v>77.739999999999995</v>
-      </c>
-      <c r="I34">
-        <v>76.760000000000005</v>
-      </c>
-      <c r="J34">
-        <v>77.12</v>
-      </c>
-      <c r="K34">
-        <v>69.61</v>
-      </c>
-      <c r="L34">
-        <v>73.209999999999994</v>
-      </c>
-      <c r="M34">
-        <v>68.3</v>
-      </c>
-      <c r="N34">
-        <v>81.36</v>
-      </c>
-      <c r="O34">
-        <v>78.33</v>
-      </c>
-      <c r="P34">
-        <v>80.58</v>
-      </c>
-      <c r="Q34">
-        <v>63.08</v>
-      </c>
-      <c r="R34">
-        <v>73.89</v>
-      </c>
-      <c r="S34">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="T34">
-        <v>75.38</v>
-      </c>
-      <c r="U34">
-        <v>73.12</v>
-      </c>
-      <c r="V34">
-        <v>76.459999999999994</v>
-      </c>
-      <c r="W34">
-        <v>71.06</v>
-      </c>
-      <c r="X34">
-        <v>63.73</v>
-      </c>
-      <c r="Y34">
-        <v>63.73</v>
-      </c>
-      <c r="Z34">
-        <v>79.39</v>
-      </c>
-      <c r="AA34">
-        <v>75.69</v>
-      </c>
-      <c r="AB34">
-        <v>81.83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -2990,701 +4775,1295 @@
       <c r="AB38" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AC38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX38" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B39">
-        <v>5811.18</v>
+        <v>1374.38</v>
       </c>
       <c r="C39">
-        <v>5883.19</v>
+        <v>1227.87</v>
       </c>
       <c r="D39">
-        <v>5943.45</v>
+        <v>1183.46</v>
       </c>
       <c r="E39">
-        <v>5807.81</v>
+        <v>1062.93</v>
       </c>
       <c r="F39">
-        <v>5841.54</v>
+        <v>1054.43</v>
       </c>
       <c r="G39">
-        <v>5288.6</v>
+        <v>1021.86</v>
       </c>
       <c r="H39">
-        <v>5625.06</v>
+        <v>1008.91</v>
       </c>
       <c r="I39">
-        <v>5265.21</v>
+        <v>1088.7</v>
       </c>
       <c r="J39">
-        <v>4922.78</v>
+        <v>924.41</v>
       </c>
       <c r="K39">
-        <v>4837.28</v>
+        <v>1014.57</v>
       </c>
       <c r="L39">
-        <v>4663.83</v>
+        <v>935.87</v>
       </c>
       <c r="M39">
-        <v>4492.1000000000004</v>
+        <v>945.45</v>
       </c>
       <c r="N39">
-        <v>4548.16</v>
+        <v>853.95</v>
       </c>
       <c r="O39">
-        <v>4438.09</v>
+        <v>923.87</v>
       </c>
       <c r="P39">
-        <v>4457.5600000000004</v>
+        <v>929.24</v>
       </c>
       <c r="Q39">
-        <v>3928.18</v>
+        <v>867.4400000000001</v>
       </c>
       <c r="R39">
-        <v>4243.1899999999996</v>
+        <v>857.4400000000001</v>
       </c>
       <c r="S39">
-        <v>3850.85</v>
+        <v>841.28</v>
       </c>
       <c r="T39">
-        <v>3569.66</v>
+        <v>894.8</v>
       </c>
       <c r="U39">
-        <v>3809.67</v>
+        <v>837.5599999999999</v>
       </c>
       <c r="V39">
-        <v>3778.63</v>
+        <v>754.4400000000001</v>
       </c>
       <c r="W39">
-        <v>3573.63</v>
+        <v>783.09</v>
       </c>
       <c r="X39">
-        <v>3592.57</v>
+        <v>769.49</v>
       </c>
       <c r="Y39">
-        <v>3592.57</v>
+        <v>741.9</v>
       </c>
       <c r="Z39">
-        <v>3895.56</v>
+        <v>714.58</v>
       </c>
       <c r="AA39">
-        <v>3147.93</v>
+        <v>723.5</v>
       </c>
       <c r="AB39">
-        <v>3110.07</v>
+        <v>705.99</v>
+      </c>
+      <c r="AC39">
+        <v>709.08</v>
+      </c>
+      <c r="AD39">
+        <v>689.85</v>
+      </c>
+      <c r="AE39">
+        <v>624.87</v>
+      </c>
+      <c r="AF39">
+        <v>641.8200000000001</v>
+      </c>
+      <c r="AG39">
+        <v>674.98</v>
+      </c>
+      <c r="AH39">
+        <v>612.63</v>
+      </c>
+      <c r="AI39">
+        <v>607.91</v>
+      </c>
+      <c r="AJ39">
+        <v>607.4299999999999</v>
+      </c>
+      <c r="AK39">
+        <v>612.5700000000001</v>
+      </c>
+      <c r="AL39">
+        <v>567.84</v>
+      </c>
+      <c r="AM39">
+        <v>589.46</v>
+      </c>
+      <c r="AN39">
+        <v>606.02</v>
+      </c>
+      <c r="AO39">
+        <v>601.08</v>
+      </c>
+      <c r="AP39">
+        <v>563.61</v>
+      </c>
+      <c r="AQ39">
+        <v>568.47</v>
+      </c>
+      <c r="AR39">
+        <v>571.49</v>
+      </c>
+      <c r="AS39">
+        <v>571.49</v>
+      </c>
+      <c r="AT39">
+        <v>619.6799999999999</v>
+      </c>
+      <c r="AU39">
+        <v>497.55</v>
+      </c>
+      <c r="AV39">
+        <v>479.91</v>
+      </c>
+      <c r="AW39">
+        <v>500.76</v>
+      </c>
+      <c r="AX39">
+        <v>494.73</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B40">
-        <v>6493.85</v>
+        <v>1771.47</v>
       </c>
       <c r="C40">
-        <v>6430.39</v>
+        <v>1549.61</v>
       </c>
       <c r="D40">
-        <v>6488.27</v>
+        <v>1468.65</v>
       </c>
       <c r="E40">
-        <v>6401.98</v>
+        <v>1406.17</v>
       </c>
       <c r="F40">
-        <v>6328.19</v>
+        <v>1377.09</v>
       </c>
       <c r="G40">
-        <v>6245.31</v>
+        <v>1344.46</v>
       </c>
       <c r="H40">
-        <v>6258.88</v>
+        <v>1328.56</v>
       </c>
       <c r="I40">
-        <v>6146.65</v>
+        <v>1388.21</v>
       </c>
       <c r="J40">
-        <v>5960.21</v>
+        <v>1268.83</v>
       </c>
       <c r="K40">
-        <v>5988.44</v>
+        <v>1329.83</v>
       </c>
       <c r="L40">
-        <v>5982.04</v>
+        <v>1262.1</v>
       </c>
       <c r="M40">
-        <v>5957.23</v>
+        <v>1264.84</v>
       </c>
       <c r="N40">
-        <v>5680.99</v>
+        <v>1219.86</v>
       </c>
       <c r="O40">
-        <v>5756.35</v>
+        <v>1252.48</v>
       </c>
       <c r="P40">
-        <v>5664.8</v>
+        <v>1240.16</v>
       </c>
       <c r="Q40">
-        <v>5674.31</v>
+        <v>1205.45</v>
       </c>
       <c r="R40">
-        <v>5670.79</v>
+        <v>1201.56</v>
       </c>
       <c r="S40">
-        <v>5523.01</v>
+        <v>1207.43</v>
       </c>
       <c r="T40">
-        <v>5352.33</v>
+        <v>1218.72</v>
       </c>
       <c r="U40">
-        <v>5484.45</v>
+        <v>1176.5</v>
       </c>
       <c r="V40">
-        <v>5410.08</v>
+        <v>1119.47</v>
       </c>
       <c r="W40">
-        <v>5362.28</v>
+        <v>1133.3</v>
       </c>
       <c r="X40">
-        <v>5440.24</v>
+        <v>1135.35</v>
       </c>
       <c r="Y40">
-        <v>5440.24</v>
+        <v>1125.42</v>
       </c>
       <c r="Z40">
-        <v>5316.48</v>
+        <v>1109.74</v>
       </c>
       <c r="AA40">
-        <v>5089.16</v>
+        <v>1078.68</v>
       </c>
       <c r="AB40">
-        <v>4934.93</v>
+        <v>1085.59</v>
+      </c>
+      <c r="AC40">
+        <v>1074.9</v>
+      </c>
+      <c r="AD40">
+        <v>1093.52</v>
+      </c>
+      <c r="AE40">
+        <v>1031.99</v>
+      </c>
+      <c r="AF40">
+        <v>1030.19</v>
+      </c>
+      <c r="AG40">
+        <v>1050.5</v>
+      </c>
+      <c r="AH40">
+        <v>1020.75</v>
+      </c>
+      <c r="AI40">
+        <v>1028.11</v>
+      </c>
+      <c r="AJ40">
+        <v>1012.07</v>
+      </c>
+      <c r="AK40">
+        <v>1015.57</v>
+      </c>
+      <c r="AL40">
+        <v>979.38</v>
+      </c>
+      <c r="AM40">
+        <v>1010.39</v>
+      </c>
+      <c r="AN40">
+        <v>1001.45</v>
+      </c>
+      <c r="AO40">
+        <v>991.28</v>
+      </c>
+      <c r="AP40">
+        <v>971.89</v>
+      </c>
+      <c r="AQ40">
+        <v>969.45</v>
+      </c>
+      <c r="AR40">
+        <v>983.29</v>
+      </c>
+      <c r="AS40">
+        <v>983.29</v>
+      </c>
+      <c r="AT40">
+        <v>994.13</v>
+      </c>
+      <c r="AU40">
+        <v>947.58</v>
+      </c>
+      <c r="AV40">
+        <v>915.65</v>
+      </c>
+      <c r="AW40">
+        <v>912.5</v>
+      </c>
+      <c r="AX40">
+        <v>-0</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B41">
-        <v>1246.5999999999999</v>
+        <v>1701.54</v>
       </c>
       <c r="C41">
-        <v>1239.54</v>
+        <v>834.35</v>
       </c>
       <c r="D41">
-        <v>1239.29</v>
+        <v>824.5700000000001</v>
       </c>
       <c r="E41">
-        <v>1230.73</v>
+        <v>1004.06</v>
       </c>
       <c r="F41">
-        <v>1215.73</v>
+        <v>870.8200000000001</v>
       </c>
       <c r="G41">
-        <v>1244.8399999999999</v>
+        <v>978.52</v>
       </c>
       <c r="H41">
-        <v>1232.8399999999999</v>
+        <v>974.55</v>
       </c>
       <c r="I41">
-        <v>1231.8599999999999</v>
+        <v>827.3099999999999</v>
       </c>
       <c r="J41">
-        <v>1220.1400000000001</v>
+        <v>889.77</v>
       </c>
       <c r="K41">
-        <v>1298.68</v>
+        <v>951.62</v>
       </c>
       <c r="L41">
-        <v>1259.74</v>
+        <v>908.62</v>
       </c>
       <c r="M41">
-        <v>1307.31</v>
+        <v>1003.63</v>
       </c>
       <c r="N41">
-        <v>1163.77</v>
+        <v>1029.14</v>
       </c>
       <c r="O41">
-        <v>1196.58</v>
+        <v>880.58</v>
       </c>
       <c r="P41">
-        <v>1165.78</v>
+        <v>863.45</v>
       </c>
       <c r="Q41">
-        <v>1351.02</v>
+        <v>1088.85</v>
       </c>
       <c r="R41">
-        <v>1233.32</v>
+        <v>1422.16</v>
       </c>
       <c r="S41">
-        <v>1215.2</v>
+        <v>1023.63</v>
       </c>
       <c r="T41">
-        <v>1188.56</v>
+        <v>887.62</v>
       </c>
       <c r="U41">
-        <v>1227.74</v>
+        <v>975.92</v>
       </c>
       <c r="V41">
-        <v>1207.4000000000001</v>
+        <v>1270.8</v>
       </c>
       <c r="W41">
-        <v>1244.27</v>
+        <v>976.0700000000001</v>
       </c>
       <c r="X41">
-        <v>1302.17</v>
+        <v>1603.67</v>
       </c>
       <c r="Y41">
-        <v>1302.17</v>
+        <v>1375.99</v>
       </c>
       <c r="Z41">
-        <v>1160.3599999999999</v>
+        <v>1708.91</v>
       </c>
       <c r="AA41">
-        <v>1176.9100000000001</v>
+        <v>905.03</v>
       </c>
       <c r="AB41">
-        <v>1116.5899999999999</v>
+        <v>1159.05</v>
+      </c>
+      <c r="AC41">
+        <v>977.78</v>
+      </c>
+      <c r="AD41">
+        <v>1601.04</v>
+      </c>
+      <c r="AE41">
+        <v>2163.3</v>
+      </c>
+      <c r="AF41">
+        <v>1157.21</v>
+      </c>
+      <c r="AG41">
+        <v>1224.72</v>
+      </c>
+      <c r="AH41">
+        <v>1435</v>
+      </c>
+      <c r="AI41">
+        <v>1349.97</v>
+      </c>
+      <c r="AJ41">
+        <v>1157.51</v>
+      </c>
+      <c r="AK41">
+        <v>1251.05</v>
+      </c>
+      <c r="AL41">
+        <v>1211.71</v>
+      </c>
+      <c r="AM41">
+        <v>1617.45</v>
+      </c>
+      <c r="AN41">
+        <v>1271.29</v>
+      </c>
+      <c r="AO41">
+        <v>1229.15</v>
+      </c>
+      <c r="AP41">
+        <v>1409.23</v>
+      </c>
+      <c r="AQ41">
+        <v>1543.42</v>
+      </c>
+      <c r="AR41">
+        <v>2236.24</v>
+      </c>
+      <c r="AS41">
+        <v>2236.24</v>
+      </c>
+      <c r="AT41">
+        <v>1101.9</v>
+      </c>
+      <c r="AU41">
+        <v>2617.64</v>
+      </c>
+      <c r="AV41">
+        <v>1819.19</v>
+      </c>
+      <c r="AW41">
+        <v>1337.09</v>
+      </c>
+      <c r="AX41">
+        <v>1029.4</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B42">
-        <v>3733.66</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>3685.02</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>3722.54</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>3676.27</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>3632.06</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>3617.06</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>3613.76</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>3568.14</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>3474.65</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>3527.65</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>3502.35</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>3523.57</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>3319.38</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>3365.42</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>3312.18</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>3420.92</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>3351.43</v>
+        <v>0</v>
       </c>
       <c r="S42">
-        <v>3274.26</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>3192.07</v>
+        <v>0</v>
       </c>
       <c r="U42">
-        <v>3264.81</v>
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>3239.05</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>3225.97</v>
+        <v>0</v>
       </c>
       <c r="X42">
-        <v>3279.05</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>3279.05</v>
+        <v>0</v>
       </c>
       <c r="Z42">
-        <v>3152.9</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>3062.58</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>2962.78</v>
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
+      <c r="AS42">
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>0</v>
+      </c>
+      <c r="AW42">
+        <v>0</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B43">
-        <v>3060.03</v>
+        <v>2078.44</v>
       </c>
       <c r="C43">
-        <v>3067.09</v>
+        <v>908.67</v>
       </c>
       <c r="D43">
-        <v>3072.6</v>
+        <v>888.85</v>
       </c>
       <c r="E43">
-        <v>3023.72</v>
+        <v>1166.57</v>
       </c>
       <c r="F43">
-        <v>2983.93</v>
+        <v>955.4400000000001</v>
       </c>
       <c r="G43">
-        <v>3133.56</v>
+        <v>1114.52</v>
       </c>
       <c r="H43">
-        <v>3061.99</v>
+        <v>1101.95</v>
       </c>
       <c r="I43">
-        <v>3101.06</v>
+        <v>901.2</v>
       </c>
       <c r="J43">
-        <v>3090.76</v>
+        <v>1005.43</v>
       </c>
       <c r="K43">
-        <v>3539.88</v>
+        <v>1077.04</v>
       </c>
       <c r="L43">
-        <v>3288.7</v>
+        <v>1021.53</v>
       </c>
       <c r="M43">
-        <v>3530.9</v>
+        <v>1172.6</v>
       </c>
       <c r="N43">
-        <v>2943.31</v>
+        <v>1188.62</v>
       </c>
       <c r="O43">
-        <v>3087.32</v>
+        <v>998.34</v>
       </c>
       <c r="P43">
-        <v>2965.57</v>
+        <v>978.39</v>
       </c>
       <c r="Q43">
-        <v>3856.45</v>
+        <v>1280.12</v>
       </c>
       <c r="R43">
-        <v>3237.73</v>
+        <v>1750.09</v>
       </c>
       <c r="S43">
-        <v>3200.1</v>
+        <v>1183.52</v>
       </c>
       <c r="T43">
-        <v>3154.69</v>
+        <v>982.48</v>
       </c>
       <c r="U43">
-        <v>3253.16</v>
+        <v>1113.09</v>
       </c>
       <c r="V43">
-        <v>3195.19</v>
+        <v>1554.55</v>
       </c>
       <c r="W43">
-        <v>3447.1</v>
+        <v>1119.6</v>
       </c>
       <c r="X43">
-        <v>3793.73</v>
+        <v>1997.58</v>
       </c>
       <c r="Y43">
-        <v>3793.73</v>
+        <v>1697.57</v>
       </c>
       <c r="Z43">
-        <v>3040.31</v>
+        <v>2163.21</v>
       </c>
       <c r="AA43">
-        <v>3201.16</v>
+        <v>1033.42</v>
       </c>
       <c r="AB43">
-        <v>2919.35</v>
+        <v>1403.84</v>
+      </c>
+      <c r="AC43">
+        <v>1129.94</v>
+      </c>
+      <c r="AD43">
+        <v>2004.51</v>
+      </c>
+      <c r="AE43">
+        <v>2794.91</v>
+      </c>
+      <c r="AF43">
+        <v>1359.89</v>
+      </c>
+      <c r="AG43">
+        <v>1469.59</v>
+      </c>
+      <c r="AH43">
+        <v>1765.34</v>
+      </c>
+      <c r="AI43">
+        <v>1646.49</v>
+      </c>
+      <c r="AJ43">
+        <v>1377.77</v>
+      </c>
+      <c r="AK43">
+        <v>1510.88</v>
+      </c>
+      <c r="AL43">
+        <v>1458.39</v>
+      </c>
+      <c r="AM43">
+        <v>2018.77</v>
+      </c>
+      <c r="AN43">
+        <v>1533.11</v>
+      </c>
+      <c r="AO43">
+        <v>1481.93</v>
+      </c>
+      <c r="AP43">
+        <v>1721.88</v>
+      </c>
+      <c r="AQ43">
+        <v>1919.85</v>
+      </c>
+      <c r="AR43">
+        <v>2909.66</v>
+      </c>
+      <c r="AS43">
+        <v>2909.66</v>
+      </c>
+      <c r="AT43">
+        <v>1307.19</v>
+      </c>
+      <c r="AU43">
+        <v>3448.65</v>
+      </c>
+      <c r="AV43">
+        <v>2308.38</v>
+      </c>
+      <c r="AW43">
+        <v>1628.18</v>
+      </c>
+      <c r="AX43">
+        <v>1212.34</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B44">
-        <v>1207.3900000000001</v>
+        <v>1637.98</v>
       </c>
       <c r="C44">
-        <v>1200.58</v>
+        <v>826.9400000000001</v>
       </c>
       <c r="D44">
-        <v>1200.3399999999999</v>
+        <v>820.9400000000001</v>
       </c>
       <c r="E44">
-        <v>1191.9000000000001</v>
+        <v>980.23</v>
       </c>
       <c r="F44">
-        <v>1177.4000000000001</v>
+        <v>863</v>
       </c>
       <c r="G44">
-        <v>1205.8900000000001</v>
+        <v>960.25</v>
       </c>
       <c r="H44">
-        <v>1194.21</v>
+        <v>958.3200000000001</v>
       </c>
       <c r="I44">
-        <v>1193.29</v>
+        <v>821.48</v>
       </c>
       <c r="J44">
-        <v>1182.1199999999999</v>
+        <v>875</v>
       </c>
       <c r="K44">
-        <v>1258.55</v>
+        <v>935.54</v>
       </c>
       <c r="L44">
-        <v>1220.68</v>
+        <v>894.55</v>
       </c>
       <c r="M44">
-        <v>1266.8399999999999</v>
+        <v>977.91</v>
       </c>
       <c r="N44">
-        <v>1127.5</v>
+        <v>1006.11</v>
       </c>
       <c r="O44">
-        <v>1159.19</v>
+        <v>865.28</v>
       </c>
       <c r="P44">
-        <v>1129.3499999999999</v>
+        <v>848.58</v>
       </c>
       <c r="Q44">
-        <v>1309.7</v>
+        <v>1059.43</v>
       </c>
       <c r="R44">
-        <v>1195.21</v>
+        <v>1366.05</v>
       </c>
       <c r="S44">
-        <v>1177.71</v>
+        <v>1000.4</v>
       </c>
       <c r="T44">
-        <v>1151.6400000000001</v>
+        <v>875.46</v>
       </c>
       <c r="U44">
-        <v>1189.94</v>
+        <v>957.2</v>
       </c>
       <c r="V44">
-        <v>1169.8699999999999</v>
+        <v>1222.76</v>
       </c>
       <c r="W44">
-        <v>1206.02</v>
+        <v>955.99</v>
       </c>
       <c r="X44">
-        <v>1262.51</v>
+        <v>1534.97</v>
       </c>
       <c r="Y44">
-        <v>1262.51</v>
+        <v>1320.81</v>
       </c>
       <c r="Z44">
-        <v>1124.32</v>
+        <v>1628.39</v>
       </c>
       <c r="AA44">
-        <v>1140.68</v>
+        <v>887.38</v>
       </c>
       <c r="AB44">
-        <v>1082.17</v>
+        <v>1118.37</v>
+      </c>
+      <c r="AC44">
+        <v>953.24</v>
+      </c>
+      <c r="AD44">
+        <v>1530.2</v>
+      </c>
+      <c r="AE44">
+        <v>2048.26</v>
+      </c>
+      <c r="AF44">
+        <v>1125.78</v>
+      </c>
+      <c r="AG44">
+        <v>1184.04</v>
+      </c>
+      <c r="AH44">
+        <v>1378.35</v>
+      </c>
+      <c r="AI44">
+        <v>1299.9</v>
+      </c>
+      <c r="AJ44">
+        <v>1122.18</v>
+      </c>
+      <c r="AK44">
+        <v>1207.96</v>
+      </c>
+      <c r="AL44">
+        <v>1171.05</v>
+      </c>
+      <c r="AM44">
+        <v>1547.16</v>
+      </c>
+      <c r="AN44">
+        <v>1228</v>
+      </c>
+      <c r="AO44">
+        <v>1187.35</v>
+      </c>
+      <c r="AP44">
+        <v>1356.17</v>
+      </c>
+      <c r="AQ44">
+        <v>1477.53</v>
+      </c>
+      <c r="AR44">
+        <v>2112.78</v>
+      </c>
+      <c r="AS44">
+        <v>2112.78</v>
+      </c>
+      <c r="AT44">
+        <v>1069.25</v>
+      </c>
+      <c r="AU44">
+        <v>2463.63</v>
+      </c>
+      <c r="AV44">
+        <v>1731.65</v>
+      </c>
+      <c r="AW44">
+        <v>1285.14</v>
+      </c>
+      <c r="AX44">
+        <v>1000.7</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B45">
-        <v>1214.94</v>
+        <v>1594.61</v>
       </c>
       <c r="C45">
-        <v>1208.05</v>
+        <v>790.4299999999999</v>
       </c>
       <c r="D45">
-        <v>1207.81</v>
+        <v>782</v>
       </c>
       <c r="E45">
-        <v>1199.5</v>
+        <v>945.62</v>
       </c>
       <c r="F45">
-        <v>1184.8800000000001</v>
+        <v>824.51</v>
       </c>
       <c r="G45">
-        <v>1213.17</v>
+        <v>923.26</v>
       </c>
       <c r="H45">
-        <v>1201.49</v>
+        <v>920.17</v>
       </c>
       <c r="I45">
-        <v>1200.52</v>
+        <v>783.86</v>
       </c>
       <c r="J45">
-        <v>1189.05</v>
+        <v>840.14</v>
       </c>
       <c r="K45">
-        <v>1265.51</v>
+        <v>898.45</v>
       </c>
       <c r="L45">
-        <v>1227.5999999999999</v>
+        <v>858.3</v>
       </c>
       <c r="M45">
-        <v>1273.93</v>
+        <v>944.5700000000001</v>
       </c>
       <c r="N45">
-        <v>1134.1300000000001</v>
+        <v>969.72</v>
       </c>
       <c r="O45">
-        <v>1166.1199999999999</v>
+        <v>831.24</v>
       </c>
       <c r="P45">
-        <v>1136.1099999999999</v>
+        <v>815.11</v>
       </c>
       <c r="Q45">
-        <v>1316.4</v>
+        <v>1024.26</v>
       </c>
       <c r="R45">
-        <v>1201.81</v>
+        <v>1331.77</v>
       </c>
       <c r="S45">
-        <v>1184.1400000000001</v>
+        <v>964.42</v>
       </c>
       <c r="T45">
-        <v>1158.25</v>
+        <v>839.7</v>
       </c>
       <c r="U45">
-        <v>1196.3399999999999</v>
+        <v>920.65</v>
       </c>
       <c r="V45">
-        <v>1176.6099999999999</v>
+        <v>1190.74</v>
       </c>
       <c r="W45">
-        <v>1212.43</v>
+        <v>920.3200000000001</v>
       </c>
       <c r="X45">
-        <v>1268.75</v>
+        <v>1499.89</v>
       </c>
       <c r="Y45">
-        <v>1268.75</v>
+        <v>1288.23</v>
       </c>
       <c r="Z45">
-        <v>1130.77</v>
+        <v>1595.82</v>
       </c>
       <c r="AA45">
-        <v>1146.81</v>
+        <v>853.67</v>
       </c>
       <c r="AB45">
-        <v>1088.05</v>
+        <v>1087.11</v>
+      </c>
+      <c r="AC45">
+        <v>920.42</v>
+      </c>
+      <c r="AD45">
+        <v>1496.65</v>
+      </c>
+      <c r="AE45">
+        <v>2015.66</v>
+      </c>
+      <c r="AF45">
+        <v>1088.53</v>
+      </c>
+      <c r="AG45">
+        <v>1149.49</v>
+      </c>
+      <c r="AH45">
+        <v>1343.79</v>
+      </c>
+      <c r="AI45">
+        <v>1265.27</v>
+      </c>
+      <c r="AJ45">
+        <v>1087.48</v>
+      </c>
+      <c r="AK45">
+        <v>1173.68</v>
+      </c>
+      <c r="AL45">
+        <v>1137.15</v>
+      </c>
+      <c r="AM45">
+        <v>1512.44</v>
+      </c>
+      <c r="AN45">
+        <v>1192.84</v>
+      </c>
+      <c r="AO45">
+        <v>1153.32</v>
+      </c>
+      <c r="AP45">
+        <v>1320.53</v>
+      </c>
+      <c r="AQ45">
+        <v>1443.63</v>
+      </c>
+      <c r="AR45">
+        <v>2082.06</v>
+      </c>
+      <c r="AS45">
+        <v>2082.06</v>
+      </c>
+      <c r="AT45">
+        <v>1035.57</v>
+      </c>
+      <c r="AU45">
+        <v>2433.92</v>
+      </c>
+      <c r="AV45">
+        <v>1698.19</v>
+      </c>
+      <c r="AW45">
+        <v>1252.39</v>
+      </c>
+      <c r="AX45">
+        <v>968.0599999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B46">
-        <v>4102.05</v>
+        <v>1508.66</v>
       </c>
       <c r="C46">
-        <v>4114.41</v>
+        <v>679.95</v>
       </c>
       <c r="D46">
-        <v>4105.59</v>
+        <v>667.0700000000001</v>
       </c>
       <c r="E46">
-        <v>4060.04</v>
+        <v>857.88</v>
       </c>
       <c r="F46">
-        <v>4017.66</v>
+        <v>713.61</v>
       </c>
       <c r="G46">
-        <v>4169.95</v>
+        <v>824.03</v>
       </c>
       <c r="H46">
-        <v>4084.61</v>
+        <v>816.28</v>
       </c>
       <c r="I46">
-        <v>4136.76</v>
+        <v>674.39</v>
       </c>
       <c r="J46">
-        <v>4097.6400000000003</v>
+        <v>744.96</v>
       </c>
       <c r="K46">
-        <v>4580.37</v>
+        <v>797.63</v>
       </c>
       <c r="L46">
-        <v>4316.4399999999996</v>
+        <v>758.02</v>
       </c>
       <c r="M46">
-        <v>4582.6400000000003</v>
+        <v>861.74</v>
       </c>
       <c r="N46">
-        <v>3902.84</v>
+        <v>875.58</v>
       </c>
       <c r="O46">
-        <v>4070.64</v>
+        <v>739.02</v>
       </c>
       <c r="P46">
-        <v>3953.3</v>
+        <v>724.36</v>
       </c>
       <c r="Q46">
-        <v>4918.21</v>
+        <v>938.52</v>
       </c>
       <c r="R46">
-        <v>4242.6000000000004</v>
+        <v>1267.95</v>
       </c>
       <c r="S46">
-        <v>4192.1099999999997</v>
+        <v>871.59</v>
       </c>
       <c r="T46">
-        <v>4118.9399999999996</v>
+        <v>732.09</v>
       </c>
       <c r="U46">
-        <v>4254.74</v>
+        <v>822.75</v>
       </c>
       <c r="V46">
-        <v>4175.71</v>
+        <v>1128</v>
       </c>
       <c r="W46">
-        <v>4458.78</v>
+        <v>826.25</v>
       </c>
       <c r="X46">
-        <v>4807.07</v>
+        <v>1442.77</v>
       </c>
       <c r="Y46">
-        <v>4807.07</v>
+        <v>1229.07</v>
       </c>
       <c r="Z46">
-        <v>4015.33</v>
+        <v>1555.31</v>
       </c>
       <c r="AA46">
-        <v>4190.04</v>
+        <v>763.63</v>
       </c>
       <c r="AB46">
-        <v>3834.08</v>
+        <v>1021.27</v>
+      </c>
+      <c r="AC46">
+        <v>833.89</v>
+      </c>
+      <c r="AD46">
+        <v>1445.89</v>
+      </c>
+      <c r="AE46">
+        <v>2000.19</v>
+      </c>
+      <c r="AF46">
+        <v>997.25</v>
+      </c>
+      <c r="AG46">
+        <v>1073.42</v>
+      </c>
+      <c r="AH46">
+        <v>1279.17</v>
+      </c>
+      <c r="AI46">
+        <v>1195.69</v>
+      </c>
+      <c r="AJ46">
+        <v>1006.93</v>
+      </c>
+      <c r="AK46">
+        <v>1100.04</v>
+      </c>
+      <c r="AL46">
+        <v>1062.79</v>
+      </c>
+      <c r="AM46">
+        <v>1457.38</v>
+      </c>
+      <c r="AN46">
+        <v>1116.64</v>
+      </c>
+      <c r="AO46">
+        <v>1079.44</v>
+      </c>
+      <c r="AP46">
+        <v>1249.89</v>
+      </c>
+      <c r="AQ46">
+        <v>1387.74</v>
+      </c>
+      <c r="AR46">
+        <v>2078.65</v>
+      </c>
+      <c r="AS46">
+        <v>2078.65</v>
+      </c>
+      <c r="AT46">
+        <v>956.2</v>
+      </c>
+      <c r="AU46">
+        <v>2456.14</v>
+      </c>
+      <c r="AV46">
+        <v>1659.53</v>
+      </c>
+      <c r="AW46">
+        <v>1183.71</v>
+      </c>
+      <c r="AX46">
+        <v>888.6</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
@@ -3769,713 +6148,1290 @@
       <c r="AB50" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AC50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX50" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>8516.7999999999993</v>
+        <v>8648.4</v>
       </c>
       <c r="C51">
-        <v>7773.1</v>
+        <v>8599.6</v>
       </c>
       <c r="D51">
-        <v>7698.4</v>
+        <v>6634.9</v>
       </c>
       <c r="E51">
-        <v>8153.2</v>
+        <v>5950.3</v>
       </c>
       <c r="F51">
-        <v>8102</v>
+        <v>6340.5</v>
       </c>
       <c r="G51">
-        <v>7482.6</v>
+        <v>5424.4</v>
       </c>
       <c r="H51">
-        <v>7979.4</v>
+        <v>5329.6</v>
       </c>
       <c r="I51">
-        <v>6779.8</v>
+        <v>5251.9</v>
       </c>
       <c r="J51">
-        <v>6895.2</v>
+        <v>4592.6</v>
       </c>
       <c r="K51">
-        <v>5961.4</v>
+        <v>4946.1</v>
       </c>
       <c r="L51">
-        <v>6168</v>
+        <v>4191.6</v>
       </c>
       <c r="M51">
-        <v>5534.9</v>
+        <v>4151.3</v>
       </c>
       <c r="N51">
-        <v>5279.6</v>
+        <v>4739.5</v>
       </c>
       <c r="O51">
-        <v>5695.3</v>
+        <v>4396.5</v>
       </c>
       <c r="P51">
-        <v>5608.5</v>
+        <v>4368.9</v>
       </c>
       <c r="Q51">
-        <v>4369.3999999999996</v>
+        <v>4416.4</v>
       </c>
       <c r="R51">
-        <v>5164.5</v>
+        <v>3954.8</v>
       </c>
       <c r="S51">
-        <v>4661.2</v>
+        <v>4034.9</v>
       </c>
       <c r="T51">
-        <v>4204.6000000000004</v>
+        <v>4302.8</v>
       </c>
       <c r="U51">
-        <v>4425.6000000000004</v>
+        <v>3655.9</v>
       </c>
       <c r="V51">
-        <v>4298.2</v>
+        <v>3861.3</v>
       </c>
       <c r="W51">
-        <v>3706.3</v>
+        <v>3718.1</v>
       </c>
       <c r="X51">
-        <v>3938.3</v>
+        <v>3214.6</v>
       </c>
       <c r="Y51">
-        <v>3938.3</v>
+        <v>3326</v>
       </c>
       <c r="Z51">
-        <v>3770.1</v>
+        <v>2984.6</v>
       </c>
       <c r="AA51">
-        <v>3050.9</v>
+        <v>2846.9</v>
       </c>
       <c r="AB51">
-        <v>2585.9</v>
+        <v>3071.1</v>
+      </c>
+      <c r="AC51">
+        <v>3024.3</v>
+      </c>
+      <c r="AD51">
+        <v>3095.6</v>
+      </c>
+      <c r="AE51">
+        <v>2356.1</v>
+      </c>
+      <c r="AF51">
+        <v>2910.6</v>
+      </c>
+      <c r="AG51">
+        <v>2784.9</v>
+      </c>
+      <c r="AH51">
+        <v>2647.9</v>
+      </c>
+      <c r="AI51">
+        <v>2779.9</v>
+      </c>
+      <c r="AJ51">
+        <v>2618.5</v>
+      </c>
+      <c r="AK51">
+        <v>2513.5</v>
+      </c>
+      <c r="AL51">
+        <v>2267.3</v>
+      </c>
+      <c r="AM51">
+        <v>2622.7</v>
+      </c>
+      <c r="AN51">
+        <v>2386.4</v>
+      </c>
+      <c r="AO51">
+        <v>2317.8</v>
+      </c>
+      <c r="AP51">
+        <v>2269.6</v>
+      </c>
+      <c r="AQ51">
+        <v>1998.6</v>
+      </c>
+      <c r="AR51">
+        <v>2123.7</v>
+      </c>
+      <c r="AS51">
+        <v>2123.7</v>
+      </c>
+      <c r="AT51">
+        <v>2033</v>
+      </c>
+      <c r="AU51">
+        <v>1901</v>
+      </c>
+      <c r="AV51">
+        <v>1773.3</v>
+      </c>
+      <c r="AW51">
+        <v>1645.1</v>
+      </c>
+      <c r="AX51">
+        <v>1394.4</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>8717.1</v>
+        <v>9339.5</v>
       </c>
       <c r="C52">
-        <v>7924</v>
+        <v>9109.700000000001</v>
       </c>
       <c r="D52">
-        <v>7775.6</v>
+        <v>6905.5</v>
       </c>
       <c r="E52">
-        <v>8177.4</v>
+        <v>6331.8</v>
       </c>
       <c r="F52">
-        <v>8019.2</v>
+        <v>6726.5</v>
       </c>
       <c r="G52">
-        <v>7887.6</v>
+        <v>5887.5</v>
       </c>
       <c r="H52">
-        <v>7913.2</v>
+        <v>5556</v>
       </c>
       <c r="I52">
-        <v>6948.8</v>
+        <v>5458.1</v>
       </c>
       <c r="J52">
-        <v>7020.9</v>
+        <v>5012</v>
       </c>
       <c r="K52">
-        <v>6366.9</v>
+        <v>5214.9</v>
       </c>
       <c r="L52">
-        <v>6609</v>
+        <v>4549.6</v>
       </c>
       <c r="M52">
-        <v>6208.2</v>
+        <v>4467.2</v>
       </c>
       <c r="N52">
-        <v>5460.3</v>
+        <v>5232.2</v>
       </c>
       <c r="O52">
-        <v>6126.9</v>
+        <v>4726.9</v>
       </c>
       <c r="P52">
-        <v>5953.1</v>
+        <v>4655.1</v>
       </c>
       <c r="Q52">
-        <v>5091.8</v>
+        <v>4840</v>
       </c>
       <c r="R52">
-        <v>5702.6</v>
+        <v>4394.3</v>
       </c>
       <c r="S52">
-        <v>5375.5</v>
+        <v>4500.1</v>
       </c>
       <c r="T52">
-        <v>4939.8</v>
+        <v>4584.1</v>
       </c>
       <c r="U52">
-        <v>5146.7</v>
+        <v>3962.5</v>
       </c>
       <c r="V52">
-        <v>4956</v>
+        <v>4353</v>
       </c>
       <c r="W52">
-        <v>4446.8999999999996</v>
+        <v>4023.7</v>
       </c>
       <c r="X52">
-        <v>4619.3</v>
+        <v>3575.5</v>
       </c>
       <c r="Y52">
-        <v>4619.3</v>
+        <v>3730.6</v>
       </c>
       <c r="Z52">
-        <v>3962.5</v>
+        <v>3449.2</v>
       </c>
       <c r="AA52">
-        <v>3740.3</v>
+        <v>3117.1</v>
       </c>
       <c r="AB52">
-        <v>3070.2</v>
+        <v>3463.8</v>
+      </c>
+      <c r="AC52">
+        <v>3374.3</v>
+      </c>
+      <c r="AD52">
+        <v>3581.6</v>
+      </c>
+      <c r="AE52">
+        <v>2792.5</v>
+      </c>
+      <c r="AF52">
+        <v>3382.7</v>
+      </c>
+      <c r="AG52">
+        <v>3180.6</v>
+      </c>
+      <c r="AH52">
+        <v>3175.2</v>
+      </c>
+      <c r="AI52">
+        <v>3295</v>
+      </c>
+      <c r="AJ52">
+        <v>3058.3</v>
+      </c>
+      <c r="AK52">
+        <v>2975.2</v>
+      </c>
+      <c r="AL52">
+        <v>2720</v>
+      </c>
+      <c r="AM52">
+        <v>3144.7</v>
+      </c>
+      <c r="AN52">
+        <v>2834.1</v>
+      </c>
+      <c r="AO52">
+        <v>2720.7</v>
+      </c>
+      <c r="AP52">
+        <v>2746.6</v>
+      </c>
+      <c r="AQ52">
+        <v>2419.5</v>
+      </c>
+      <c r="AR52">
+        <v>2533.1</v>
+      </c>
+      <c r="AS52">
+        <v>2533.1</v>
+      </c>
+      <c r="AT52">
+        <v>2274.9</v>
+      </c>
+      <c r="AU52">
+        <v>2371.4</v>
+      </c>
+      <c r="AV52">
+        <v>2258.4</v>
+      </c>
+      <c r="AW52">
+        <v>2027</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>5802.7</v>
+        <v>11789.3</v>
       </c>
       <c r="C53">
-        <v>5356.6</v>
+        <v>9269.299999999999</v>
       </c>
       <c r="D53">
-        <v>5181.3</v>
+        <v>7532.6</v>
       </c>
       <c r="E53">
-        <v>5377.8</v>
+        <v>7193.3</v>
       </c>
       <c r="F53">
-        <v>5282.9</v>
+        <v>7685.3</v>
       </c>
       <c r="G53">
+        <v>7433.8</v>
+      </c>
+      <c r="H53">
+        <v>6455.9</v>
+      </c>
+      <c r="I53">
+        <v>5841.3</v>
+      </c>
+      <c r="J53">
+        <v>6227.9</v>
+      </c>
+      <c r="K53">
+        <v>6087.1</v>
+      </c>
+      <c r="L53">
+        <v>5977.6</v>
+      </c>
+      <c r="M53">
+        <v>5708.7</v>
+      </c>
+      <c r="N53">
+        <v>7066.7</v>
+      </c>
+      <c r="O53">
+        <v>5648.8</v>
+      </c>
+      <c r="P53">
+        <v>5513.9</v>
+      </c>
+      <c r="Q53">
+        <v>6514.5</v>
+      </c>
+      <c r="R53">
+        <v>6600.9</v>
+      </c>
+      <c r="S53">
+        <v>6160.8</v>
+      </c>
+      <c r="T53">
+        <v>5574.3</v>
+      </c>
+      <c r="U53">
+        <v>5413.7</v>
+      </c>
+      <c r="V53">
+        <v>6402</v>
+      </c>
+      <c r="W53">
+        <v>5402.2</v>
+      </c>
+      <c r="X53">
+        <v>5688.2</v>
+      </c>
+      <c r="Y53">
+        <v>5381</v>
+      </c>
+      <c r="Z53">
+        <v>5653.7</v>
+      </c>
+      <c r="AA53">
+        <v>4321.8</v>
+      </c>
+      <c r="AB53">
+        <v>5090.9</v>
+      </c>
+      <c r="AC53">
+        <v>4840.8</v>
+      </c>
+      <c r="AD53">
+        <v>5786.4</v>
+      </c>
+      <c r="AE53">
+        <v>5033.8</v>
+      </c>
+      <c r="AF53">
+        <v>5531.7</v>
+      </c>
+      <c r="AG53">
+        <v>5064.7</v>
+      </c>
+      <c r="AH53">
+        <v>5604.5</v>
+      </c>
+      <c r="AI53">
+        <v>5571.5</v>
+      </c>
+      <c r="AJ53">
+        <v>4991.3</v>
+      </c>
+      <c r="AK53">
+        <v>5031</v>
+      </c>
+      <c r="AL53">
+        <v>4748.9</v>
+      </c>
+      <c r="AM53">
+        <v>5610.4</v>
+      </c>
+      <c r="AN53">
+        <v>4817.1</v>
+      </c>
+      <c r="AO53">
+        <v>4714.3</v>
+      </c>
+      <c r="AP53">
+        <v>4963.9</v>
+      </c>
+      <c r="AQ53">
+        <v>4540.3</v>
+      </c>
+      <c r="AR53">
+        <v>4516.9</v>
+      </c>
+      <c r="AS53">
+        <v>4516.9</v>
+      </c>
+      <c r="AT53">
+        <v>3545.8</v>
+      </c>
+      <c r="AU53">
+        <v>4377.3</v>
+      </c>
+      <c r="AV53">
+        <v>4604.4</v>
+      </c>
+      <c r="AW53">
+        <v>3908.9</v>
+      </c>
+      <c r="AX53">
+        <v>3083.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:50">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>0.9</v>
+      </c>
+      <c r="C54">
+        <v>0.9</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0.3</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0.1</v>
+      </c>
+      <c r="J54">
+        <v>0.2</v>
+      </c>
+      <c r="K54">
+        <v>0.2</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0.2</v>
+      </c>
+      <c r="N54">
+        <v>0.7</v>
+      </c>
+      <c r="O54">
+        <v>0.3</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0.1</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0.4</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0.1</v>
+      </c>
+      <c r="W54">
+        <v>0.1</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0.2</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0.6</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0.6</v>
+      </c>
+      <c r="AL54">
+        <v>0.1</v>
+      </c>
+      <c r="AM54">
+        <v>0.3</v>
+      </c>
+      <c r="AN54">
+        <v>0.5</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>0</v>
+      </c>
+      <c r="AQ54">
+        <v>0.2</v>
+      </c>
+      <c r="AR54">
+        <v>0.3</v>
+      </c>
+      <c r="AS54">
+        <v>0.3</v>
+      </c>
+      <c r="AT54">
+        <v>0.1</v>
+      </c>
+      <c r="AU54">
+        <v>0.1</v>
+      </c>
+      <c r="AV54">
+        <v>0</v>
+      </c>
+      <c r="AW54">
+        <v>0</v>
+      </c>
+      <c r="AX54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:50">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>12987.9</v>
+      </c>
+      <c r="C55">
+        <v>10039.1</v>
+      </c>
+      <c r="D55">
+        <v>8191.5</v>
+      </c>
+      <c r="E55">
+        <v>7857.2</v>
+      </c>
+      <c r="F55">
+        <v>8398</v>
+      </c>
+      <c r="G55">
+        <v>8164.4</v>
+      </c>
+      <c r="H55">
+        <v>7058.5</v>
+      </c>
+      <c r="I55">
+        <v>6360</v>
+      </c>
+      <c r="J55">
+        <v>6833.8</v>
+      </c>
+      <c r="K55">
+        <v>6656.6</v>
+      </c>
+      <c r="L55">
+        <v>6589.3</v>
+      </c>
+      <c r="M55">
+        <v>6283.4</v>
+      </c>
+      <c r="N55">
+        <v>7785.6</v>
+      </c>
+      <c r="O55">
+        <v>6187.2</v>
+      </c>
+      <c r="P55">
+        <v>6034.5</v>
+      </c>
+      <c r="Q55">
+        <v>7174.2</v>
+      </c>
+      <c r="R55">
+        <v>7308.4</v>
+      </c>
+      <c r="S55">
+        <v>6795.5</v>
+      </c>
+      <c r="T55">
+        <v>6114.7</v>
+      </c>
+      <c r="U55">
+        <v>5973.2</v>
+      </c>
+      <c r="V55">
+        <v>7079.5</v>
+      </c>
+      <c r="W55">
+        <v>5947.1</v>
+      </c>
+      <c r="X55">
+        <v>6308.2</v>
+      </c>
+      <c r="Y55">
+        <v>5930.2</v>
+      </c>
+      <c r="Z55">
+        <v>6271.1</v>
+      </c>
+      <c r="AA55">
+        <v>4770.4</v>
+      </c>
+      <c r="AB55">
+        <v>5632.3</v>
+      </c>
+      <c r="AC55">
+        <v>5348.4</v>
+      </c>
+      <c r="AD55">
+        <v>6410.6</v>
+      </c>
+      <c r="AE55">
+        <v>5603.6</v>
+      </c>
+      <c r="AF55">
+        <v>6141.3</v>
+      </c>
+      <c r="AG55">
+        <v>5616.6</v>
+      </c>
+      <c r="AH55">
+        <v>6235.4</v>
+      </c>
+      <c r="AI55">
+        <v>6190.1</v>
+      </c>
+      <c r="AJ55">
+        <v>5539.4</v>
+      </c>
+      <c r="AK55">
+        <v>5591.6</v>
+      </c>
+      <c r="AL55">
+        <v>5282.6</v>
+      </c>
+      <c r="AM55">
+        <v>6244.5</v>
+      </c>
+      <c r="AN55">
+        <v>5351.7</v>
+      </c>
+      <c r="AO55">
+        <v>5242.4</v>
+      </c>
+      <c r="AP55">
+        <v>5528</v>
+      </c>
+      <c r="AQ55">
+        <v>5060.3</v>
+      </c>
+      <c r="AR55">
+        <v>5023.7</v>
+      </c>
+      <c r="AS55">
+        <v>5023.7</v>
+      </c>
+      <c r="AT55">
+        <v>3934.7</v>
+      </c>
+      <c r="AU55">
+        <v>4869.1</v>
+      </c>
+      <c r="AV55">
+        <v>5141.7</v>
+      </c>
+      <c r="AW55">
+        <v>4359.9</v>
+      </c>
+      <c r="AX55">
+        <v>3434.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:50">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>11867.9</v>
+      </c>
+      <c r="C56">
+        <v>9382.4</v>
+      </c>
+      <c r="D56">
+        <v>7612.4</v>
+      </c>
+      <c r="E56">
+        <v>7260.1</v>
+      </c>
+      <c r="F56">
+        <v>7755.7</v>
+      </c>
+      <c r="G56">
+        <v>7490.4</v>
+      </c>
+      <c r="H56">
+        <v>6513.9</v>
+      </c>
+      <c r="I56">
+        <v>5901</v>
+      </c>
+      <c r="J56">
+        <v>6277.1</v>
+      </c>
+      <c r="K56">
+        <v>6141.5</v>
+      </c>
+      <c r="L56">
+        <v>6016.3</v>
+      </c>
+      <c r="M56">
+        <v>5748.5</v>
+      </c>
+      <c r="N56">
+        <v>7113.7</v>
+      </c>
+      <c r="O56">
+        <v>5696.5</v>
+      </c>
+      <c r="P56">
+        <v>5561.9</v>
+      </c>
+      <c r="Q56">
+        <v>6558.7</v>
+      </c>
+      <c r="R56">
+        <v>6634.7</v>
+      </c>
+      <c r="S56">
+        <v>6199.6</v>
+      </c>
+      <c r="T56">
+        <v>5619.5</v>
+      </c>
+      <c r="U56">
+        <v>5447.3</v>
+      </c>
+      <c r="V56">
+        <v>6437.3</v>
+      </c>
+      <c r="W56">
+        <v>5439.5</v>
+      </c>
+      <c r="X56">
+        <v>5714.4</v>
+      </c>
+      <c r="Y56">
         <v>5416.4</v>
       </c>
-      <c r="H53">
-        <v>5245.6</v>
-      </c>
-      <c r="I53">
-        <v>4777.8</v>
-      </c>
-      <c r="J53">
-        <v>4828.1000000000004</v>
-      </c>
-      <c r="K53">
-        <v>4626.5</v>
-      </c>
-      <c r="L53">
-        <v>4647</v>
-      </c>
-      <c r="M53">
-        <v>4549</v>
-      </c>
-      <c r="N53">
-        <v>3758.1</v>
-      </c>
-      <c r="O53">
-        <v>4310.8999999999996</v>
-      </c>
-      <c r="P53">
-        <v>4156.3999999999996</v>
-      </c>
-      <c r="Q53">
-        <v>3875.7</v>
-      </c>
-      <c r="R53">
-        <v>4135.6000000000004</v>
-      </c>
-      <c r="S53">
-        <v>3985</v>
-      </c>
-      <c r="T53">
-        <v>3707.6</v>
-      </c>
-      <c r="U53">
-        <v>3829.3</v>
-      </c>
-      <c r="V53">
-        <v>3698.1</v>
-      </c>
-      <c r="W53">
-        <v>3435.8</v>
-      </c>
-      <c r="X53">
-        <v>3502.5</v>
-      </c>
-      <c r="Y53">
-        <v>3502.5</v>
-      </c>
-      <c r="Z53">
-        <v>2870.9</v>
-      </c>
-      <c r="AA53">
-        <v>2923.4</v>
-      </c>
-      <c r="AB53">
-        <v>2355</v>
+      <c r="Z56">
+        <v>5678.3</v>
+      </c>
+      <c r="AA56">
+        <v>4348.1</v>
+      </c>
+      <c r="AB56">
+        <v>5118.2</v>
+      </c>
+      <c r="AC56">
+        <v>4868.9</v>
+      </c>
+      <c r="AD56">
+        <v>5814.9</v>
+      </c>
+      <c r="AE56">
+        <v>5051</v>
+      </c>
+      <c r="AF56">
+        <v>5555.3</v>
+      </c>
+      <c r="AG56">
+        <v>5088.1</v>
+      </c>
+      <c r="AH56">
+        <v>5624.7</v>
+      </c>
+      <c r="AI56">
+        <v>5594</v>
+      </c>
+      <c r="AJ56">
+        <v>5013.2</v>
+      </c>
+      <c r="AK56">
+        <v>5050.7</v>
+      </c>
+      <c r="AL56">
+        <v>4766.2</v>
+      </c>
+      <c r="AM56">
+        <v>5629.8</v>
+      </c>
+      <c r="AN56">
+        <v>4836.6</v>
+      </c>
+      <c r="AO56">
+        <v>4732.1</v>
+      </c>
+      <c r="AP56">
+        <v>4980.3</v>
+      </c>
+      <c r="AQ56">
+        <v>4554.1</v>
+      </c>
+      <c r="AR56">
+        <v>4533.6</v>
+      </c>
+      <c r="AS56">
+        <v>4533.6</v>
+      </c>
+      <c r="AT56">
+        <v>3561.5</v>
+      </c>
+      <c r="AU56">
+        <v>4393.3</v>
+      </c>
+      <c r="AV56">
+        <v>4615.5</v>
+      </c>
+      <c r="AW56">
+        <v>3920</v>
+      </c>
+      <c r="AX56">
+        <v>3093.4</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54">
-        <v>8024.5</v>
-      </c>
-      <c r="C54">
-        <v>7308.6</v>
-      </c>
-      <c r="D54">
-        <v>7159.2</v>
-      </c>
-      <c r="E54">
-        <v>7505.8</v>
-      </c>
-      <c r="F54">
-        <v>7359.3</v>
-      </c>
-      <c r="G54">
-        <v>7305.1</v>
-      </c>
-      <c r="H54">
-        <v>7268.2</v>
-      </c>
-      <c r="I54">
-        <v>6440.2</v>
-      </c>
-      <c r="J54">
-        <v>6507.2</v>
-      </c>
-      <c r="K54">
-        <v>5982.2</v>
-      </c>
-      <c r="L54">
-        <v>6167</v>
-      </c>
-      <c r="M54">
-        <v>5846.5</v>
-      </c>
-      <c r="N54">
-        <v>5054.5</v>
-      </c>
-      <c r="O54">
-        <v>5707.7</v>
-      </c>
-      <c r="P54">
-        <v>5533.1</v>
-      </c>
-      <c r="Q54">
-        <v>4831.3</v>
-      </c>
-      <c r="R54">
-        <v>5361.1</v>
-      </c>
-      <c r="S54">
-        <v>5077.6000000000004</v>
-      </c>
-      <c r="T54">
-        <v>4677.2</v>
-      </c>
-      <c r="U54">
-        <v>4865.8999999999996</v>
-      </c>
-      <c r="V54">
-        <v>4684.8</v>
-      </c>
-      <c r="W54">
-        <v>4241.2</v>
-      </c>
-      <c r="X54">
-        <v>4384.1000000000004</v>
-      </c>
-      <c r="Y54">
-        <v>4384.1000000000004</v>
-      </c>
-      <c r="Z54">
-        <v>3716.4</v>
-      </c>
-      <c r="AA54">
-        <v>3579.2</v>
-      </c>
-      <c r="AB54">
-        <v>2923.9</v>
+    <row r="57" spans="1:50">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>11816.3</v>
+      </c>
+      <c r="C57">
+        <v>9307.299999999999</v>
+      </c>
+      <c r="D57">
+        <v>7560.1</v>
+      </c>
+      <c r="E57">
+        <v>7216.3</v>
+      </c>
+      <c r="F57">
+        <v>7709.6</v>
+      </c>
+      <c r="G57">
+        <v>7453.3</v>
+      </c>
+      <c r="H57">
+        <v>6475.9</v>
+      </c>
+      <c r="I57">
+        <v>5861.9</v>
+      </c>
+      <c r="J57">
+        <v>6244.8</v>
+      </c>
+      <c r="K57">
+        <v>6105.9</v>
+      </c>
+      <c r="L57">
+        <v>5990.9</v>
+      </c>
+      <c r="M57">
+        <v>5722.4</v>
+      </c>
+      <c r="N57">
+        <v>7082.9</v>
+      </c>
+      <c r="O57">
+        <v>5665.3</v>
+      </c>
+      <c r="P57">
+        <v>5530.5</v>
+      </c>
+      <c r="Q57">
+        <v>6529.7</v>
+      </c>
+      <c r="R57">
+        <v>6612.5</v>
+      </c>
+      <c r="S57">
+        <v>6174.1</v>
+      </c>
+      <c r="T57">
+        <v>5589.6</v>
+      </c>
+      <c r="U57">
+        <v>5425.3</v>
+      </c>
+      <c r="V57">
+        <v>6414.1</v>
+      </c>
+      <c r="W57">
+        <v>5415</v>
+      </c>
+      <c r="X57">
+        <v>5697.2</v>
+      </c>
+      <c r="Y57">
+        <v>5393.2</v>
+      </c>
+      <c r="Z57">
+        <v>5662.2</v>
+      </c>
+      <c r="AA57">
+        <v>4330.8</v>
+      </c>
+      <c r="AB57">
+        <v>5100.3</v>
+      </c>
+      <c r="AC57">
+        <v>4850.5</v>
+      </c>
+      <c r="AD57">
+        <v>5796.2</v>
+      </c>
+      <c r="AE57">
+        <v>5039.7</v>
+      </c>
+      <c r="AF57">
+        <v>5539.8</v>
+      </c>
+      <c r="AG57">
+        <v>5072.7</v>
+      </c>
+      <c r="AH57">
+        <v>5611.5</v>
+      </c>
+      <c r="AI57">
+        <v>5579.2</v>
+      </c>
+      <c r="AJ57">
+        <v>4998.9</v>
+      </c>
+      <c r="AK57">
+        <v>5037.8</v>
+      </c>
+      <c r="AL57">
+        <v>4754.8</v>
+      </c>
+      <c r="AM57">
+        <v>5617</v>
+      </c>
+      <c r="AN57">
+        <v>4823.8</v>
+      </c>
+      <c r="AO57">
+        <v>4720.4</v>
+      </c>
+      <c r="AP57">
+        <v>4969.6</v>
+      </c>
+      <c r="AQ57">
+        <v>4545</v>
+      </c>
+      <c r="AR57">
+        <v>4522.6</v>
+      </c>
+      <c r="AS57">
+        <v>4522.6</v>
+      </c>
+      <c r="AT57">
+        <v>3551.2</v>
+      </c>
+      <c r="AU57">
+        <v>4382.8</v>
+      </c>
+      <c r="AV57">
+        <v>4608.2</v>
+      </c>
+      <c r="AW57">
+        <v>3912.7</v>
+      </c>
+      <c r="AX57">
+        <v>3086.9</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55">
-        <v>8252.5</v>
-      </c>
-      <c r="C55">
-        <v>7697.8</v>
-      </c>
-      <c r="D55">
-        <v>7406.7</v>
-      </c>
-      <c r="E55">
-        <v>7599.5</v>
-      </c>
-      <c r="F55">
-        <v>7455.4</v>
-      </c>
-      <c r="G55">
-        <v>7843.4</v>
-      </c>
-      <c r="H55">
-        <v>7447.1</v>
-      </c>
-      <c r="I55">
-        <v>6909</v>
-      </c>
-      <c r="J55">
-        <v>6967.6</v>
-      </c>
-      <c r="K55">
-        <v>6880.1</v>
-      </c>
-      <c r="L55">
-        <v>6790</v>
-      </c>
-      <c r="M55">
-        <v>6794.8</v>
-      </c>
-      <c r="N55">
-        <v>5461.1</v>
-      </c>
-      <c r="O55">
-        <v>6318.8</v>
-      </c>
-      <c r="P55">
-        <v>6068.9</v>
-      </c>
-      <c r="Q55">
-        <v>5881.2</v>
-      </c>
-      <c r="R55">
-        <v>6142.2</v>
-      </c>
-      <c r="S55">
-        <v>5980.5</v>
-      </c>
-      <c r="T55">
-        <v>5592.9</v>
-      </c>
-      <c r="U55">
-        <v>5743.8</v>
-      </c>
-      <c r="V55">
-        <v>5569.4</v>
-      </c>
-      <c r="W55">
-        <v>5239.3</v>
-      </c>
-      <c r="X55">
-        <v>5311.8</v>
-      </c>
-      <c r="Y55">
-        <v>5311.8</v>
-      </c>
-      <c r="Z55">
-        <v>4271.2</v>
-      </c>
-      <c r="AA55">
-        <v>4480.8999999999996</v>
-      </c>
-      <c r="AB55">
-        <v>3582.3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56">
-        <v>5865.1</v>
-      </c>
-      <c r="C56">
-        <v>5414.8</v>
-      </c>
-      <c r="D56">
-        <v>5237.3</v>
-      </c>
-      <c r="E56">
-        <v>5435.7</v>
-      </c>
-      <c r="F56">
-        <v>5339.7</v>
-      </c>
-      <c r="G56">
-        <v>5475.4</v>
-      </c>
-      <c r="H56">
-        <v>5302</v>
-      </c>
-      <c r="I56">
-        <v>4830</v>
-      </c>
-      <c r="J56">
-        <v>4880.7</v>
-      </c>
-      <c r="K56">
-        <v>4678.1000000000004</v>
-      </c>
-      <c r="L56">
-        <v>4698</v>
-      </c>
-      <c r="M56">
-        <v>4599.8999999999996</v>
-      </c>
-      <c r="N56">
-        <v>3799.1</v>
-      </c>
-      <c r="O56">
-        <v>4358.5</v>
-      </c>
-      <c r="P56">
-        <v>4202.1000000000004</v>
-      </c>
-      <c r="Q56">
-        <v>3919.5</v>
-      </c>
-      <c r="R56">
-        <v>4181.3999999999996</v>
-      </c>
-      <c r="S56">
-        <v>4029.6</v>
-      </c>
-      <c r="T56">
-        <v>3749.4</v>
-      </c>
-      <c r="U56">
-        <v>3872.2</v>
-      </c>
-      <c r="V56">
-        <v>3739.7</v>
-      </c>
-      <c r="W56">
-        <v>3474.7</v>
-      </c>
-      <c r="X56">
-        <v>3542</v>
-      </c>
-      <c r="Y56">
-        <v>3542</v>
-      </c>
-      <c r="Z56">
-        <v>2902.9</v>
-      </c>
-      <c r="AA56">
-        <v>2956.7</v>
-      </c>
-      <c r="AB56">
-        <v>2381.6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57">
-        <v>5875.3</v>
-      </c>
-      <c r="C57">
-        <v>5423.4</v>
-      </c>
-      <c r="D57">
-        <v>5246</v>
-      </c>
-      <c r="E57">
-        <v>5445.1</v>
-      </c>
-      <c r="F57">
-        <v>5349.1</v>
-      </c>
-      <c r="G57">
-        <v>5483.9</v>
-      </c>
-      <c r="H57">
-        <v>5311.2</v>
-      </c>
-      <c r="I57">
-        <v>4837.3999999999996</v>
-      </c>
-      <c r="J57">
-        <v>4888.3</v>
-      </c>
-      <c r="K57">
-        <v>4684</v>
-      </c>
-      <c r="L57">
-        <v>4704.8999999999996</v>
-      </c>
-      <c r="M57">
-        <v>4605.5</v>
-      </c>
-      <c r="N57">
-        <v>3804.9</v>
-      </c>
-      <c r="O57">
-        <v>4364.5</v>
-      </c>
-      <c r="P57">
-        <v>4208.2</v>
-      </c>
-      <c r="Q57">
-        <v>3923.6</v>
-      </c>
-      <c r="R57">
-        <v>4187</v>
-      </c>
-      <c r="S57">
-        <v>4034.4</v>
-      </c>
-      <c r="T57">
-        <v>3753.5</v>
-      </c>
-      <c r="U57">
-        <v>3876.8</v>
-      </c>
-      <c r="V57">
-        <v>3743.9</v>
-      </c>
-      <c r="W57">
-        <v>3478.2</v>
-      </c>
-      <c r="X57">
-        <v>3545.8</v>
-      </c>
-      <c r="Y57">
-        <v>3545.8</v>
-      </c>
-      <c r="Z57">
-        <v>2906.6</v>
-      </c>
-      <c r="AA57">
-        <v>2959.5</v>
-      </c>
-      <c r="AB57">
-        <v>2384.1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>8374.2000000000007</v>
+        <v>11603.6</v>
       </c>
       <c r="C58">
-        <v>7783.1</v>
+        <v>9007.6</v>
       </c>
       <c r="D58">
-        <v>7503.2</v>
+        <v>7342.2</v>
       </c>
       <c r="E58">
-        <v>7726.7</v>
+        <v>7034.7</v>
       </c>
       <c r="F58">
-        <v>7580</v>
+        <v>7518.2</v>
       </c>
       <c r="G58">
-        <v>7914.3</v>
+        <v>7299.8</v>
       </c>
       <c r="H58">
-        <v>7564.2</v>
+        <v>6318.1</v>
       </c>
       <c r="I58">
-        <v>6974.8</v>
+        <v>5698.8</v>
       </c>
       <c r="J58">
-        <v>7041.7</v>
+        <v>6111.4</v>
       </c>
       <c r="K58">
-        <v>6891</v>
+        <v>5958.1</v>
       </c>
       <c r="L58">
-        <v>6836.1</v>
+        <v>5886.1</v>
       </c>
       <c r="M58">
-        <v>6796.7</v>
+        <v>5614.6</v>
       </c>
       <c r="N58">
-        <v>5507.6</v>
+        <v>6955.7</v>
       </c>
       <c r="O58">
-        <v>6355.3</v>
+        <v>5535.7</v>
       </c>
       <c r="P58">
-        <v>6107.8</v>
+        <v>5400.2</v>
       </c>
       <c r="Q58">
-        <v>5855.7</v>
+        <v>6410.1</v>
       </c>
       <c r="R58">
-        <v>6153.9</v>
+        <v>6521.4</v>
       </c>
       <c r="S58">
-        <v>5973.2</v>
+        <v>6069.4</v>
       </c>
       <c r="T58">
-        <v>5578.2</v>
+        <v>5468.8</v>
       </c>
       <c r="U58">
-        <v>5737.8</v>
+        <v>5334.5</v>
       </c>
       <c r="V58">
-        <v>5557.5</v>
+        <v>6319</v>
       </c>
       <c r="W58">
-        <v>5207.3</v>
+        <v>5314.2</v>
       </c>
       <c r="X58">
-        <v>5289.6</v>
+        <v>5626.7</v>
       </c>
       <c r="Y58">
-        <v>5289.6</v>
+        <v>5297.7</v>
       </c>
       <c r="Z58">
-        <v>4272.3999999999996</v>
+        <v>5595.5</v>
       </c>
       <c r="AA58">
-        <v>4446.1000000000004</v>
+        <v>4259.9</v>
       </c>
       <c r="AB58">
-        <v>3564.2</v>
+        <v>5026.7</v>
+      </c>
+      <c r="AC58">
+        <v>4774.9</v>
+      </c>
+      <c r="AD58">
+        <v>5719.4</v>
+      </c>
+      <c r="AE58">
+        <v>4993.6</v>
+      </c>
+      <c r="AF58">
+        <v>5476.3</v>
+      </c>
+      <c r="AG58">
+        <v>5009.7</v>
+      </c>
+      <c r="AH58">
+        <v>5557.3</v>
+      </c>
+      <c r="AI58">
+        <v>5518.8</v>
+      </c>
+      <c r="AJ58">
+        <v>4940</v>
+      </c>
+      <c r="AK58">
+        <v>4984.8</v>
+      </c>
+      <c r="AL58">
+        <v>4708.3</v>
+      </c>
+      <c r="AM58">
+        <v>5564.9</v>
+      </c>
+      <c r="AN58">
+        <v>4771.4</v>
+      </c>
+      <c r="AO58">
+        <v>4672.9</v>
+      </c>
+      <c r="AP58">
+        <v>4925.7</v>
+      </c>
+      <c r="AQ58">
+        <v>4508.1</v>
+      </c>
+      <c r="AR58">
+        <v>4477.8</v>
+      </c>
+      <c r="AS58">
+        <v>4477.8</v>
+      </c>
+      <c r="AT58">
+        <v>3509.1</v>
+      </c>
+      <c r="AU58">
+        <v>4339.8</v>
+      </c>
+      <c r="AV58">
+        <v>4578.5</v>
+      </c>
+      <c r="AW58">
+        <v>3883.4</v>
+      </c>
+      <c r="AX58">
+        <v>3060.2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B15:AB22">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>0.7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:XFD34">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4739,28 +7695,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A1DC5E-C8D3-4F0B-AAD8-015AE91D706E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="53e77888-5bec-407a-a6fa-c2c7ee1e5467"/>
-    <ds:schemaRef ds:uri="4548bcc8-bbdd-4d33-87dd-a61176a6844c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74B9989F-D7BE-4C02-AFAC-DDFEA8FCA067}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F487C066-3887-4497-942F-A97721ABF9F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B4A77EE-379E-4791-A275-DFA525324908}"/>
 </file>